--- a/src/assets/Excel/Demo_Unit_Detailstemplate.xlsx
+++ b/src/assets/Excel/Demo_Unit_Detailstemplate.xlsx
@@ -1,84 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anusha\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525A4787-8F00-49BA-8E9B-D44CEA8A4577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1968" yWindow="2568" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Sno</t>
   </si>
   <si>
-    <t>Unit Name - Flat no.</t>
-  </si>
-  <si>
-    <t>UnitType</t>
-  </si>
-  <si>
-    <t>UnitDimension</t>
-  </si>
-  <si>
-    <t>UnitRate</t>
-  </si>
-  <si>
-    <t>CalculationType</t>
-  </si>
-  <si>
-    <t>OccupancyAndOwnershipStatus</t>
-  </si>
-  <si>
-    <t>OwnerFirstName</t>
-  </si>
-  <si>
-    <t>OwnerLastname</t>
-  </si>
-  <si>
-    <t>OwnerMobile</t>
-  </si>
-  <si>
-    <t>OwnerEmailID</t>
-  </si>
-  <si>
-    <t>TenantFirstName</t>
-  </si>
-  <si>
-    <t>TenantLastName</t>
-  </si>
-  <si>
-    <t>TenantMobileNumber</t>
-  </si>
-  <si>
-    <t>TenantEmail</t>
-  </si>
-  <si>
-    <t>A-001</t>
-  </si>
-  <si>
-    <t>Flat</t>
-  </si>
-  <si>
-    <t>FlatRateValue</t>
-  </si>
-  <si>
-    <t>Sold Owner Occupied Unit</t>
-  </si>
-  <si>
     <t>John</t>
-  </si>
-  <si>
-    <t>Cruis</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
@@ -87,18 +39,6 @@
     </r>
   </si>
   <si>
-    <t>A-002</t>
-  </si>
-  <si>
-    <t>Villa</t>
-  </si>
-  <si>
-    <t>dimension</t>
-  </si>
-  <si>
-    <t>Sold Tenant Occupied Unit</t>
-  </si>
-  <si>
     <t>Sam</t>
   </si>
   <si>
@@ -107,7 +47,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
@@ -124,7 +64,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
@@ -136,18 +76,12 @@
     <t>A-003</t>
   </si>
   <si>
-    <t>Sold Vacant Unit</t>
-  </si>
-  <si>
-    <t>Angelina</t>
-  </si>
-  <si>
     <t>Jyo</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
@@ -156,37 +90,87 @@
     </r>
   </si>
   <si>
+    <t>flatno</t>
+  </si>
+  <si>
+    <t>unittype</t>
+  </si>
+  <si>
+    <t>ownershipstatus</t>
+  </si>
+  <si>
+    <t>ownerfirstname</t>
+  </si>
+  <si>
+    <t>ownerlastname</t>
+  </si>
+  <si>
+    <t>ownermobilenumber</t>
+  </si>
+  <si>
+    <t>owneremaiid</t>
+  </si>
+  <si>
+    <t>tenantfirstname</t>
+  </si>
+  <si>
+    <t>tenantlastname</t>
+  </si>
+  <si>
+    <t>tenantmobilenumber</t>
+  </si>
+  <si>
+    <t>tenantemaiid</t>
+  </si>
+  <si>
+    <t>blockname</t>
+  </si>
+  <si>
+    <t>FLAT</t>
+  </si>
+  <si>
+    <t>SOLD OWNER OCCUPIED UNIT</t>
+  </si>
+  <si>
+    <t>SOLD TENANT OCCUPIED UNIT</t>
+  </si>
+  <si>
+    <t>SOLD VACANT UNIT</t>
+  </si>
+  <si>
+    <t>UNSOLD VACANT UNIT</t>
+  </si>
+  <si>
     <t>A-004</t>
   </si>
   <si>
-    <t>UnSold Vacant Unit</t>
+    <t>A-001</t>
+  </si>
+  <si>
+    <t>A-002</t>
+  </si>
+  <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t>Cruis</t>
+  </si>
+  <si>
+    <t>BLOCK-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Helvetica Neue"/>
@@ -246,27 +230,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -277,26 +261,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -498,7 +541,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -517,7 +560,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -547,7 +590,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -573,7 +616,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -599,7 +642,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -625,7 +668,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,7 +694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,7 +720,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,9 +811,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -787,7 +836,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -806,7 +855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -832,7 +881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -858,7 +907,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,7 +933,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +959,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +985,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +1011,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +1037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +1063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,9 +1102,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1069,7 +1124,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1088,7 +1143,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1173,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1199,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1277,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1303,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1329,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,253 +1394,241 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:IT6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="15.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.35156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.8516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.8516" style="1" customWidth="1"/>
-    <col min="11" max="15" width="20.8516" style="1" customWidth="1"/>
-    <col min="16" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7" max="11" width="20.88671875" style="1" customWidth="1"/>
+    <col min="12" max="252" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:254" ht="32.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="IS1" s="1"/>
+      <c r="IT1" s="1"/>
     </row>
-    <row r="2" ht="20.05" customHeight="1">
+    <row r="2" spans="1:254" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4">
-        <v>800</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4">
         <v>9999999999</v>
       </c>
-      <c r="K2" t="s" s="2">
-        <v>21</v>
-      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="IS2" s="1"/>
+      <c r="IT2" s="1"/>
     </row>
-    <row r="3" ht="14.7" customHeight="1">
+    <row r="3" spans="1:254" ht="14.7" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1100</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F3" t="s" s="2">
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4">
         <v>8888888888</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4">
         <v>6666666666</v>
       </c>
-      <c r="O3" t="s" s="2">
-        <v>31</v>
-      </c>
+      <c r="M3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="IS3" s="1"/>
+      <c r="IT3" s="1"/>
     </row>
-    <row r="4" ht="14.7" customHeight="1">
+    <row r="4" spans="1:254" ht="14.7" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1300</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
         <v>7777777777</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>36</v>
-      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="IS4" s="1"/>
+      <c r="IT4" s="1"/>
     </row>
-    <row r="5" ht="14.7" customHeight="1">
+    <row r="5" spans="1:254" ht="14.7" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1750</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F5" t="s" s="2">
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="IS5" s="1"/>
+      <c r="IT5" s="1"/>
+    </row>
+    <row r="6" spans="1:254" ht="15.15" customHeight="1">
+      <c r="IS6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" location="" tooltip="" display="johnc@gmail.com"/>
-    <hyperlink ref="K3" r:id="rId2" location="" tooltip="" display="sam@gmail.com"/>
-    <hyperlink ref="O3" r:id="rId3" location="" tooltip="" display="daniel@gmail.com"/>
-    <hyperlink ref="K4" r:id="rId4" location="" tooltip="" display="angelina@gmail.com"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/assets/Excel/Demo_Unit_Detailstemplate.xlsx
+++ b/src/assets/Excel/Demo_Unit_Detailstemplate.xlsx
@@ -1,36 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anusha\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525A4787-8F00-49BA-8E9B-D44CEA8A4577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="1968" yWindow="2568" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Sno</t>
   </si>
   <si>
+    <t>blockname</t>
+  </si>
+  <si>
+    <t>flatno</t>
+  </si>
+  <si>
+    <t>unittype</t>
+  </si>
+  <si>
+    <t>ownershipstatus</t>
+  </si>
+  <si>
+    <t>ownerfirstname</t>
+  </si>
+  <si>
+    <t>ownerlastname</t>
+  </si>
+  <si>
+    <t>ownermobilenumber</t>
+  </si>
+  <si>
+    <t>owneremaiid</t>
+  </si>
+  <si>
+    <t>tenantfirstname</t>
+  </si>
+  <si>
+    <t>tenantlastname</t>
+  </si>
+  <si>
+    <t>tenantmobilenumber</t>
+  </si>
+  <si>
+    <t>tenantemaiid</t>
+  </si>
+  <si>
+    <t>ASHBLCK401</t>
+  </si>
+  <si>
+    <t>ashunit40</t>
+  </si>
+  <si>
+    <t>FLAT</t>
+  </si>
+  <si>
+    <t>Sold Owner Occupied Unit</t>
+  </si>
+  <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>Cruis</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
@@ -39,6 +81,12 @@
     </r>
   </si>
   <si>
+    <t>Ashunit41</t>
+  </si>
+  <si>
+    <t>Sold Tenant Occupied Unit</t>
+  </si>
+  <si>
     <t>Sam</t>
   </si>
   <si>
@@ -47,7 +95,7 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
@@ -64,7 +112,7 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
@@ -73,104 +121,54 @@
     </r>
   </si>
   <si>
-    <t>A-003</t>
-  </si>
-  <si>
-    <t>Jyo</t>
+    <t>ashunit42</t>
+  </si>
+  <si>
+    <t>Johnone</t>
+  </si>
+  <si>
+    <t>Cruisone</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>angelina@gmail.com</t>
+      <t>test@gmail.com</t>
     </r>
   </si>
   <si>
-    <t>flatno</t>
-  </si>
-  <si>
-    <t>unittype</t>
-  </si>
-  <si>
-    <t>ownershipstatus</t>
-  </si>
-  <si>
-    <t>ownerfirstname</t>
-  </si>
-  <si>
-    <t>ownerlastname</t>
-  </si>
-  <si>
-    <t>ownermobilenumber</t>
-  </si>
-  <si>
-    <t>owneremaiid</t>
-  </si>
-  <si>
-    <t>tenantfirstname</t>
-  </si>
-  <si>
-    <t>tenantlastname</t>
-  </si>
-  <si>
-    <t>tenantmobilenumber</t>
-  </si>
-  <si>
-    <t>tenantemaiid</t>
-  </si>
-  <si>
-    <t>blockname</t>
-  </si>
-  <si>
-    <t>FLAT</t>
-  </si>
-  <si>
-    <t>SOLD OWNER OCCUPIED UNIT</t>
-  </si>
-  <si>
-    <t>SOLD TENANT OCCUPIED UNIT</t>
-  </si>
-  <si>
-    <t>SOLD VACANT UNIT</t>
-  </si>
-  <si>
-    <t>UNSOLD VACANT UNIT</t>
-  </si>
-  <si>
-    <t>A-004</t>
-  </si>
-  <si>
-    <t>A-001</t>
-  </si>
-  <si>
-    <t>A-002</t>
-  </si>
-  <si>
-    <t>Angelina</t>
-  </si>
-  <si>
-    <t>Cruis</t>
-  </si>
-  <si>
-    <t>BLOCK-A</t>
+    <t>Ashunit43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Helvetica Neue"/>
@@ -190,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -215,6 +213,37 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -228,29 +257,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -261,85 +423,26 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -541,7 +644,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -560,7 +663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -590,7 +693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -616,7 +719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -642,7 +745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,7 +771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -694,7 +797,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -720,7 +823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -746,7 +849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -772,7 +875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,7 +901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,15 +914,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -836,7 +933,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -855,7 +952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -881,7 +978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -907,7 +1004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -933,7 +1030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,7 +1160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,15 +1199,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1124,7 +1215,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1143,7 +1234,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +1316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1251,7 +1342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1446,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1394,241 +1485,1690 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IT6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="15.15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
-    <col min="7" max="11" width="20.88671875" style="1" customWidth="1"/>
-    <col min="12" max="252" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.35156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6641" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8516" style="1" customWidth="1"/>
+    <col min="7" max="11" width="20.8516" style="1" customWidth="1"/>
+    <col min="12" max="254" width="16.3516" style="1" customWidth="1"/>
+    <col min="255" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="32.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="32.25" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4"/>
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DB1" s="4"/>
+      <c r="DC1" s="4"/>
+      <c r="DD1" s="4"/>
+      <c r="DE1" s="4"/>
+      <c r="DF1" s="4"/>
+      <c r="DG1" s="4"/>
+      <c r="DH1" s="4"/>
+      <c r="DI1" s="4"/>
+      <c r="DJ1" s="4"/>
+      <c r="DK1" s="4"/>
+      <c r="DL1" s="4"/>
+      <c r="DM1" s="4"/>
+      <c r="DN1" s="4"/>
+      <c r="DO1" s="4"/>
+      <c r="DP1" s="4"/>
+      <c r="DQ1" s="4"/>
+      <c r="DR1" s="4"/>
+      <c r="DS1" s="4"/>
+      <c r="DT1" s="4"/>
+      <c r="DU1" s="4"/>
+      <c r="DV1" s="4"/>
+      <c r="DW1" s="4"/>
+      <c r="DX1" s="4"/>
+      <c r="DY1" s="4"/>
+      <c r="DZ1" s="4"/>
+      <c r="EA1" s="4"/>
+      <c r="EB1" s="4"/>
+      <c r="EC1" s="4"/>
+      <c r="ED1" s="4"/>
+      <c r="EE1" s="4"/>
+      <c r="EF1" s="4"/>
+      <c r="EG1" s="4"/>
+      <c r="EH1" s="4"/>
+      <c r="EI1" s="4"/>
+      <c r="EJ1" s="4"/>
+      <c r="EK1" s="4"/>
+      <c r="EL1" s="4"/>
+      <c r="EM1" s="4"/>
+      <c r="EN1" s="4"/>
+      <c r="EO1" s="4"/>
+      <c r="EP1" s="4"/>
+      <c r="EQ1" s="4"/>
+      <c r="ER1" s="4"/>
+      <c r="ES1" s="4"/>
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="4"/>
+      <c r="EV1" s="4"/>
+      <c r="EW1" s="4"/>
+      <c r="EX1" s="4"/>
+      <c r="EY1" s="4"/>
+      <c r="EZ1" s="4"/>
+      <c r="FA1" s="4"/>
+      <c r="FB1" s="4"/>
+      <c r="FC1" s="4"/>
+      <c r="FD1" s="4"/>
+      <c r="FE1" s="4"/>
+      <c r="FF1" s="4"/>
+      <c r="FG1" s="4"/>
+      <c r="FH1" s="4"/>
+      <c r="FI1" s="4"/>
+      <c r="FJ1" s="4"/>
+      <c r="FK1" s="4"/>
+      <c r="FL1" s="4"/>
+      <c r="FM1" s="4"/>
+      <c r="FN1" s="4"/>
+      <c r="FO1" s="4"/>
+      <c r="FP1" s="4"/>
+      <c r="FQ1" s="4"/>
+      <c r="FR1" s="4"/>
+      <c r="FS1" s="4"/>
+      <c r="FT1" s="4"/>
+      <c r="FU1" s="4"/>
+      <c r="FV1" s="4"/>
+      <c r="FW1" s="4"/>
+      <c r="FX1" s="4"/>
+      <c r="FY1" s="4"/>
+      <c r="FZ1" s="4"/>
+      <c r="GA1" s="4"/>
+      <c r="GB1" s="4"/>
+      <c r="GC1" s="4"/>
+      <c r="GD1" s="4"/>
+      <c r="GE1" s="4"/>
+      <c r="GF1" s="4"/>
+      <c r="GG1" s="4"/>
+      <c r="GH1" s="4"/>
+      <c r="GI1" s="4"/>
+      <c r="GJ1" s="4"/>
+      <c r="GK1" s="4"/>
+      <c r="GL1" s="4"/>
+      <c r="GM1" s="4"/>
+      <c r="GN1" s="4"/>
+      <c r="GO1" s="4"/>
+      <c r="GP1" s="4"/>
+      <c r="GQ1" s="4"/>
+      <c r="GR1" s="4"/>
+      <c r="GS1" s="4"/>
+      <c r="GT1" s="4"/>
+      <c r="GU1" s="4"/>
+      <c r="GV1" s="4"/>
+      <c r="GW1" s="4"/>
+      <c r="GX1" s="4"/>
+      <c r="GY1" s="4"/>
+      <c r="GZ1" s="4"/>
+      <c r="HA1" s="4"/>
+      <c r="HB1" s="4"/>
+      <c r="HC1" s="4"/>
+      <c r="HD1" s="4"/>
+      <c r="HE1" s="4"/>
+      <c r="HF1" s="4"/>
+      <c r="HG1" s="4"/>
+      <c r="HH1" s="4"/>
+      <c r="HI1" s="4"/>
+      <c r="HJ1" s="4"/>
+      <c r="HK1" s="4"/>
+      <c r="HL1" s="4"/>
+      <c r="HM1" s="4"/>
+      <c r="HN1" s="4"/>
+      <c r="HO1" s="4"/>
+      <c r="HP1" s="4"/>
+      <c r="HQ1" s="4"/>
+      <c r="HR1" s="4"/>
+      <c r="HS1" s="4"/>
+      <c r="HT1" s="4"/>
+      <c r="HU1" s="4"/>
+      <c r="HV1" s="4"/>
+      <c r="HW1" s="4"/>
+      <c r="HX1" s="4"/>
+      <c r="HY1" s="4"/>
+      <c r="HZ1" s="4"/>
+      <c r="IA1" s="4"/>
+      <c r="IB1" s="4"/>
+      <c r="IC1" s="4"/>
+      <c r="ID1" s="4"/>
+      <c r="IE1" s="4"/>
+      <c r="IF1" s="4"/>
+      <c r="IG1" s="4"/>
+      <c r="IH1" s="4"/>
+      <c r="II1" s="4"/>
+      <c r="IJ1" s="4"/>
+      <c r="IK1" s="4"/>
+      <c r="IL1" s="4"/>
+      <c r="IM1" s="4"/>
+      <c r="IN1" s="4"/>
+      <c r="IO1" s="4"/>
+      <c r="IP1" s="4"/>
+      <c r="IQ1" s="4"/>
+      <c r="IR1" s="4"/>
+      <c r="IS1" s="5"/>
+      <c r="IT1" s="6"/>
+    </row>
+    <row r="2" ht="26.7" customHeight="1">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G2" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H2" s="8">
+        <v>9999999999</v>
+      </c>
+      <c r="I2" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="IS1" s="1"/>
-      <c r="IT1" s="1"/>
-    </row>
-    <row r="2" spans="1:254" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="4">
-        <v>9999999999</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="IS2" s="1"/>
-      <c r="IT2" s="1"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="10"/>
+      <c r="BX2" s="10"/>
+      <c r="BY2" s="10"/>
+      <c r="BZ2" s="10"/>
+      <c r="CA2" s="10"/>
+      <c r="CB2" s="10"/>
+      <c r="CC2" s="10"/>
+      <c r="CD2" s="10"/>
+      <c r="CE2" s="10"/>
+      <c r="CF2" s="10"/>
+      <c r="CG2" s="10"/>
+      <c r="CH2" s="10"/>
+      <c r="CI2" s="10"/>
+      <c r="CJ2" s="10"/>
+      <c r="CK2" s="10"/>
+      <c r="CL2" s="10"/>
+      <c r="CM2" s="10"/>
+      <c r="CN2" s="10"/>
+      <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
+      <c r="CQ2" s="10"/>
+      <c r="CR2" s="10"/>
+      <c r="CS2" s="10"/>
+      <c r="CT2" s="10"/>
+      <c r="CU2" s="10"/>
+      <c r="CV2" s="10"/>
+      <c r="CW2" s="10"/>
+      <c r="CX2" s="10"/>
+      <c r="CY2" s="10"/>
+      <c r="CZ2" s="10"/>
+      <c r="DA2" s="10"/>
+      <c r="DB2" s="10"/>
+      <c r="DC2" s="10"/>
+      <c r="DD2" s="10"/>
+      <c r="DE2" s="10"/>
+      <c r="DF2" s="10"/>
+      <c r="DG2" s="10"/>
+      <c r="DH2" s="10"/>
+      <c r="DI2" s="10"/>
+      <c r="DJ2" s="10"/>
+      <c r="DK2" s="10"/>
+      <c r="DL2" s="10"/>
+      <c r="DM2" s="10"/>
+      <c r="DN2" s="10"/>
+      <c r="DO2" s="10"/>
+      <c r="DP2" s="10"/>
+      <c r="DQ2" s="10"/>
+      <c r="DR2" s="10"/>
+      <c r="DS2" s="10"/>
+      <c r="DT2" s="10"/>
+      <c r="DU2" s="10"/>
+      <c r="DV2" s="10"/>
+      <c r="DW2" s="10"/>
+      <c r="DX2" s="10"/>
+      <c r="DY2" s="10"/>
+      <c r="DZ2" s="10"/>
+      <c r="EA2" s="10"/>
+      <c r="EB2" s="10"/>
+      <c r="EC2" s="10"/>
+      <c r="ED2" s="10"/>
+      <c r="EE2" s="10"/>
+      <c r="EF2" s="10"/>
+      <c r="EG2" s="10"/>
+      <c r="EH2" s="10"/>
+      <c r="EI2" s="10"/>
+      <c r="EJ2" s="10"/>
+      <c r="EK2" s="10"/>
+      <c r="EL2" s="10"/>
+      <c r="EM2" s="10"/>
+      <c r="EN2" s="10"/>
+      <c r="EO2" s="10"/>
+      <c r="EP2" s="10"/>
+      <c r="EQ2" s="10"/>
+      <c r="ER2" s="10"/>
+      <c r="ES2" s="10"/>
+      <c r="ET2" s="10"/>
+      <c r="EU2" s="10"/>
+      <c r="EV2" s="10"/>
+      <c r="EW2" s="10"/>
+      <c r="EX2" s="10"/>
+      <c r="EY2" s="10"/>
+      <c r="EZ2" s="10"/>
+      <c r="FA2" s="10"/>
+      <c r="FB2" s="10"/>
+      <c r="FC2" s="10"/>
+      <c r="FD2" s="10"/>
+      <c r="FE2" s="10"/>
+      <c r="FF2" s="10"/>
+      <c r="FG2" s="10"/>
+      <c r="FH2" s="10"/>
+      <c r="FI2" s="10"/>
+      <c r="FJ2" s="10"/>
+      <c r="FK2" s="10"/>
+      <c r="FL2" s="10"/>
+      <c r="FM2" s="10"/>
+      <c r="FN2" s="10"/>
+      <c r="FO2" s="10"/>
+      <c r="FP2" s="10"/>
+      <c r="FQ2" s="10"/>
+      <c r="FR2" s="10"/>
+      <c r="FS2" s="10"/>
+      <c r="FT2" s="10"/>
+      <c r="FU2" s="10"/>
+      <c r="FV2" s="10"/>
+      <c r="FW2" s="10"/>
+      <c r="FX2" s="10"/>
+      <c r="FY2" s="10"/>
+      <c r="FZ2" s="10"/>
+      <c r="GA2" s="10"/>
+      <c r="GB2" s="10"/>
+      <c r="GC2" s="10"/>
+      <c r="GD2" s="10"/>
+      <c r="GE2" s="10"/>
+      <c r="GF2" s="10"/>
+      <c r="GG2" s="10"/>
+      <c r="GH2" s="10"/>
+      <c r="GI2" s="10"/>
+      <c r="GJ2" s="10"/>
+      <c r="GK2" s="10"/>
+      <c r="GL2" s="10"/>
+      <c r="GM2" s="10"/>
+      <c r="GN2" s="10"/>
+      <c r="GO2" s="10"/>
+      <c r="GP2" s="10"/>
+      <c r="GQ2" s="10"/>
+      <c r="GR2" s="10"/>
+      <c r="GS2" s="10"/>
+      <c r="GT2" s="10"/>
+      <c r="GU2" s="10"/>
+      <c r="GV2" s="10"/>
+      <c r="GW2" s="10"/>
+      <c r="GX2" s="10"/>
+      <c r="GY2" s="10"/>
+      <c r="GZ2" s="10"/>
+      <c r="HA2" s="10"/>
+      <c r="HB2" s="10"/>
+      <c r="HC2" s="10"/>
+      <c r="HD2" s="10"/>
+      <c r="HE2" s="10"/>
+      <c r="HF2" s="10"/>
+      <c r="HG2" s="10"/>
+      <c r="HH2" s="10"/>
+      <c r="HI2" s="10"/>
+      <c r="HJ2" s="10"/>
+      <c r="HK2" s="10"/>
+      <c r="HL2" s="10"/>
+      <c r="HM2" s="10"/>
+      <c r="HN2" s="10"/>
+      <c r="HO2" s="10"/>
+      <c r="HP2" s="10"/>
+      <c r="HQ2" s="10"/>
+      <c r="HR2" s="10"/>
+      <c r="HS2" s="10"/>
+      <c r="HT2" s="10"/>
+      <c r="HU2" s="10"/>
+      <c r="HV2" s="10"/>
+      <c r="HW2" s="10"/>
+      <c r="HX2" s="10"/>
+      <c r="HY2" s="10"/>
+      <c r="HZ2" s="10"/>
+      <c r="IA2" s="10"/>
+      <c r="IB2" s="10"/>
+      <c r="IC2" s="10"/>
+      <c r="ID2" s="10"/>
+      <c r="IE2" s="10"/>
+      <c r="IF2" s="10"/>
+      <c r="IG2" s="10"/>
+      <c r="IH2" s="10"/>
+      <c r="II2" s="10"/>
+      <c r="IJ2" s="10"/>
+      <c r="IK2" s="10"/>
+      <c r="IL2" s="10"/>
+      <c r="IM2" s="10"/>
+      <c r="IN2" s="10"/>
+      <c r="IO2" s="10"/>
+      <c r="IP2" s="10"/>
+      <c r="IQ2" s="10"/>
+      <c r="IR2" s="10"/>
+      <c r="IS2" s="11"/>
+      <c r="IT2" s="12"/>
     </row>
-    <row r="3" spans="1:254" ht="14.7" customHeight="1">
-      <c r="A3" s="4">
+    <row r="3" ht="26.7" customHeight="1">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8888888888</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="L3" s="8">
+        <v>6666666666</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="10"/>
+      <c r="CA3" s="10"/>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="10"/>
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
+      <c r="CQ3" s="10"/>
+      <c r="CR3" s="10"/>
+      <c r="CS3" s="10"/>
+      <c r="CT3" s="10"/>
+      <c r="CU3" s="10"/>
+      <c r="CV3" s="10"/>
+      <c r="CW3" s="10"/>
+      <c r="CX3" s="10"/>
+      <c r="CY3" s="10"/>
+      <c r="CZ3" s="10"/>
+      <c r="DA3" s="10"/>
+      <c r="DB3" s="10"/>
+      <c r="DC3" s="10"/>
+      <c r="DD3" s="10"/>
+      <c r="DE3" s="10"/>
+      <c r="DF3" s="10"/>
+      <c r="DG3" s="10"/>
+      <c r="DH3" s="10"/>
+      <c r="DI3" s="10"/>
+      <c r="DJ3" s="10"/>
+      <c r="DK3" s="10"/>
+      <c r="DL3" s="10"/>
+      <c r="DM3" s="10"/>
+      <c r="DN3" s="10"/>
+      <c r="DO3" s="10"/>
+      <c r="DP3" s="10"/>
+      <c r="DQ3" s="10"/>
+      <c r="DR3" s="10"/>
+      <c r="DS3" s="10"/>
+      <c r="DT3" s="10"/>
+      <c r="DU3" s="10"/>
+      <c r="DV3" s="10"/>
+      <c r="DW3" s="10"/>
+      <c r="DX3" s="10"/>
+      <c r="DY3" s="10"/>
+      <c r="DZ3" s="10"/>
+      <c r="EA3" s="10"/>
+      <c r="EB3" s="10"/>
+      <c r="EC3" s="10"/>
+      <c r="ED3" s="10"/>
+      <c r="EE3" s="10"/>
+      <c r="EF3" s="10"/>
+      <c r="EG3" s="10"/>
+      <c r="EH3" s="10"/>
+      <c r="EI3" s="10"/>
+      <c r="EJ3" s="10"/>
+      <c r="EK3" s="10"/>
+      <c r="EL3" s="10"/>
+      <c r="EM3" s="10"/>
+      <c r="EN3" s="10"/>
+      <c r="EO3" s="10"/>
+      <c r="EP3" s="10"/>
+      <c r="EQ3" s="10"/>
+      <c r="ER3" s="10"/>
+      <c r="ES3" s="10"/>
+      <c r="ET3" s="10"/>
+      <c r="EU3" s="10"/>
+      <c r="EV3" s="10"/>
+      <c r="EW3" s="10"/>
+      <c r="EX3" s="10"/>
+      <c r="EY3" s="10"/>
+      <c r="EZ3" s="10"/>
+      <c r="FA3" s="10"/>
+      <c r="FB3" s="10"/>
+      <c r="FC3" s="10"/>
+      <c r="FD3" s="10"/>
+      <c r="FE3" s="10"/>
+      <c r="FF3" s="10"/>
+      <c r="FG3" s="10"/>
+      <c r="FH3" s="10"/>
+      <c r="FI3" s="10"/>
+      <c r="FJ3" s="10"/>
+      <c r="FK3" s="10"/>
+      <c r="FL3" s="10"/>
+      <c r="FM3" s="10"/>
+      <c r="FN3" s="10"/>
+      <c r="FO3" s="10"/>
+      <c r="FP3" s="10"/>
+      <c r="FQ3" s="10"/>
+      <c r="FR3" s="10"/>
+      <c r="FS3" s="10"/>
+      <c r="FT3" s="10"/>
+      <c r="FU3" s="10"/>
+      <c r="FV3" s="10"/>
+      <c r="FW3" s="10"/>
+      <c r="FX3" s="10"/>
+      <c r="FY3" s="10"/>
+      <c r="FZ3" s="10"/>
+      <c r="GA3" s="10"/>
+      <c r="GB3" s="10"/>
+      <c r="GC3" s="10"/>
+      <c r="GD3" s="10"/>
+      <c r="GE3" s="10"/>
+      <c r="GF3" s="10"/>
+      <c r="GG3" s="10"/>
+      <c r="GH3" s="10"/>
+      <c r="GI3" s="10"/>
+      <c r="GJ3" s="10"/>
+      <c r="GK3" s="10"/>
+      <c r="GL3" s="10"/>
+      <c r="GM3" s="10"/>
+      <c r="GN3" s="10"/>
+      <c r="GO3" s="10"/>
+      <c r="GP3" s="10"/>
+      <c r="GQ3" s="10"/>
+      <c r="GR3" s="10"/>
+      <c r="GS3" s="10"/>
+      <c r="GT3" s="10"/>
+      <c r="GU3" s="10"/>
+      <c r="GV3" s="10"/>
+      <c r="GW3" s="10"/>
+      <c r="GX3" s="10"/>
+      <c r="GY3" s="10"/>
+      <c r="GZ3" s="10"/>
+      <c r="HA3" s="10"/>
+      <c r="HB3" s="10"/>
+      <c r="HC3" s="10"/>
+      <c r="HD3" s="10"/>
+      <c r="HE3" s="10"/>
+      <c r="HF3" s="10"/>
+      <c r="HG3" s="10"/>
+      <c r="HH3" s="10"/>
+      <c r="HI3" s="10"/>
+      <c r="HJ3" s="10"/>
+      <c r="HK3" s="10"/>
+      <c r="HL3" s="10"/>
+      <c r="HM3" s="10"/>
+      <c r="HN3" s="10"/>
+      <c r="HO3" s="10"/>
+      <c r="HP3" s="10"/>
+      <c r="HQ3" s="10"/>
+      <c r="HR3" s="10"/>
+      <c r="HS3" s="10"/>
+      <c r="HT3" s="10"/>
+      <c r="HU3" s="10"/>
+      <c r="HV3" s="10"/>
+      <c r="HW3" s="10"/>
+      <c r="HX3" s="10"/>
+      <c r="HY3" s="10"/>
+      <c r="HZ3" s="10"/>
+      <c r="IA3" s="10"/>
+      <c r="IB3" s="10"/>
+      <c r="IC3" s="10"/>
+      <c r="ID3" s="10"/>
+      <c r="IE3" s="10"/>
+      <c r="IF3" s="10"/>
+      <c r="IG3" s="10"/>
+      <c r="IH3" s="10"/>
+      <c r="II3" s="10"/>
+      <c r="IJ3" s="10"/>
+      <c r="IK3" s="10"/>
+      <c r="IL3" s="10"/>
+      <c r="IM3" s="10"/>
+      <c r="IN3" s="10"/>
+      <c r="IO3" s="10"/>
+      <c r="IP3" s="10"/>
+      <c r="IQ3" s="10"/>
+      <c r="IR3" s="10"/>
+      <c r="IS3" s="11"/>
+      <c r="IT3" s="12"/>
+    </row>
+    <row r="4" ht="26.7" customHeight="1">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="8">
+        <v>8197399604</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="10"/>
+      <c r="BW4" s="10"/>
+      <c r="BX4" s="10"/>
+      <c r="BY4" s="10"/>
+      <c r="BZ4" s="10"/>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="10"/>
+      <c r="CC4" s="10"/>
+      <c r="CD4" s="10"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10"/>
+      <c r="CH4" s="10"/>
+      <c r="CI4" s="10"/>
+      <c r="CJ4" s="10"/>
+      <c r="CK4" s="10"/>
+      <c r="CL4" s="10"/>
+      <c r="CM4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
+      <c r="CQ4" s="10"/>
+      <c r="CR4" s="10"/>
+      <c r="CS4" s="10"/>
+      <c r="CT4" s="10"/>
+      <c r="CU4" s="10"/>
+      <c r="CV4" s="10"/>
+      <c r="CW4" s="10"/>
+      <c r="CX4" s="10"/>
+      <c r="CY4" s="10"/>
+      <c r="CZ4" s="10"/>
+      <c r="DA4" s="10"/>
+      <c r="DB4" s="10"/>
+      <c r="DC4" s="10"/>
+      <c r="DD4" s="10"/>
+      <c r="DE4" s="10"/>
+      <c r="DF4" s="10"/>
+      <c r="DG4" s="10"/>
+      <c r="DH4" s="10"/>
+      <c r="DI4" s="10"/>
+      <c r="DJ4" s="10"/>
+      <c r="DK4" s="10"/>
+      <c r="DL4" s="10"/>
+      <c r="DM4" s="10"/>
+      <c r="DN4" s="10"/>
+      <c r="DO4" s="10"/>
+      <c r="DP4" s="10"/>
+      <c r="DQ4" s="10"/>
+      <c r="DR4" s="10"/>
+      <c r="DS4" s="10"/>
+      <c r="DT4" s="10"/>
+      <c r="DU4" s="10"/>
+      <c r="DV4" s="10"/>
+      <c r="DW4" s="10"/>
+      <c r="DX4" s="10"/>
+      <c r="DY4" s="10"/>
+      <c r="DZ4" s="10"/>
+      <c r="EA4" s="10"/>
+      <c r="EB4" s="10"/>
+      <c r="EC4" s="10"/>
+      <c r="ED4" s="10"/>
+      <c r="EE4" s="10"/>
+      <c r="EF4" s="10"/>
+      <c r="EG4" s="10"/>
+      <c r="EH4" s="10"/>
+      <c r="EI4" s="10"/>
+      <c r="EJ4" s="10"/>
+      <c r="EK4" s="10"/>
+      <c r="EL4" s="10"/>
+      <c r="EM4" s="10"/>
+      <c r="EN4" s="10"/>
+      <c r="EO4" s="10"/>
+      <c r="EP4" s="10"/>
+      <c r="EQ4" s="10"/>
+      <c r="ER4" s="10"/>
+      <c r="ES4" s="10"/>
+      <c r="ET4" s="10"/>
+      <c r="EU4" s="10"/>
+      <c r="EV4" s="10"/>
+      <c r="EW4" s="10"/>
+      <c r="EX4" s="10"/>
+      <c r="EY4" s="10"/>
+      <c r="EZ4" s="10"/>
+      <c r="FA4" s="10"/>
+      <c r="FB4" s="10"/>
+      <c r="FC4" s="10"/>
+      <c r="FD4" s="10"/>
+      <c r="FE4" s="10"/>
+      <c r="FF4" s="10"/>
+      <c r="FG4" s="10"/>
+      <c r="FH4" s="10"/>
+      <c r="FI4" s="10"/>
+      <c r="FJ4" s="10"/>
+      <c r="FK4" s="10"/>
+      <c r="FL4" s="10"/>
+      <c r="FM4" s="10"/>
+      <c r="FN4" s="10"/>
+      <c r="FO4" s="10"/>
+      <c r="FP4" s="10"/>
+      <c r="FQ4" s="10"/>
+      <c r="FR4" s="10"/>
+      <c r="FS4" s="10"/>
+      <c r="FT4" s="10"/>
+      <c r="FU4" s="10"/>
+      <c r="FV4" s="10"/>
+      <c r="FW4" s="10"/>
+      <c r="FX4" s="10"/>
+      <c r="FY4" s="10"/>
+      <c r="FZ4" s="10"/>
+      <c r="GA4" s="10"/>
+      <c r="GB4" s="10"/>
+      <c r="GC4" s="10"/>
+      <c r="GD4" s="10"/>
+      <c r="GE4" s="10"/>
+      <c r="GF4" s="10"/>
+      <c r="GG4" s="10"/>
+      <c r="GH4" s="10"/>
+      <c r="GI4" s="10"/>
+      <c r="GJ4" s="10"/>
+      <c r="GK4" s="10"/>
+      <c r="GL4" s="10"/>
+      <c r="GM4" s="10"/>
+      <c r="GN4" s="10"/>
+      <c r="GO4" s="10"/>
+      <c r="GP4" s="10"/>
+      <c r="GQ4" s="10"/>
+      <c r="GR4" s="10"/>
+      <c r="GS4" s="10"/>
+      <c r="GT4" s="10"/>
+      <c r="GU4" s="10"/>
+      <c r="GV4" s="10"/>
+      <c r="GW4" s="10"/>
+      <c r="GX4" s="10"/>
+      <c r="GY4" s="10"/>
+      <c r="GZ4" s="10"/>
+      <c r="HA4" s="10"/>
+      <c r="HB4" s="10"/>
+      <c r="HC4" s="10"/>
+      <c r="HD4" s="10"/>
+      <c r="HE4" s="10"/>
+      <c r="HF4" s="10"/>
+      <c r="HG4" s="10"/>
+      <c r="HH4" s="10"/>
+      <c r="HI4" s="10"/>
+      <c r="HJ4" s="10"/>
+      <c r="HK4" s="10"/>
+      <c r="HL4" s="10"/>
+      <c r="HM4" s="10"/>
+      <c r="HN4" s="10"/>
+      <c r="HO4" s="10"/>
+      <c r="HP4" s="10"/>
+      <c r="HQ4" s="10"/>
+      <c r="HR4" s="10"/>
+      <c r="HS4" s="10"/>
+      <c r="HT4" s="10"/>
+      <c r="HU4" s="10"/>
+      <c r="HV4" s="10"/>
+      <c r="HW4" s="10"/>
+      <c r="HX4" s="10"/>
+      <c r="HY4" s="10"/>
+      <c r="HZ4" s="10"/>
+      <c r="IA4" s="10"/>
+      <c r="IB4" s="10"/>
+      <c r="IC4" s="10"/>
+      <c r="ID4" s="10"/>
+      <c r="IE4" s="10"/>
+      <c r="IF4" s="10"/>
+      <c r="IG4" s="10"/>
+      <c r="IH4" s="10"/>
+      <c r="II4" s="10"/>
+      <c r="IJ4" s="10"/>
+      <c r="IK4" s="10"/>
+      <c r="IL4" s="10"/>
+      <c r="IM4" s="10"/>
+      <c r="IN4" s="10"/>
+      <c r="IO4" s="10"/>
+      <c r="IP4" s="10"/>
+      <c r="IQ4" s="10"/>
+      <c r="IR4" s="10"/>
+      <c r="IS4" s="11"/>
+      <c r="IT4" s="12"/>
+    </row>
+    <row r="5" ht="26.7" customHeight="1">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="H3" s="4">
-        <v>8888888888</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="4">
-        <v>6666666666</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="IS3" s="1"/>
-      <c r="IT3" s="1"/>
+      <c r="B5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H5" s="8">
+        <v>8197399604</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="10"/>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="10"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="10"/>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="10"/>
+      <c r="BV5" s="10"/>
+      <c r="BW5" s="10"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="10"/>
+      <c r="BZ5" s="10"/>
+      <c r="CA5" s="10"/>
+      <c r="CB5" s="10"/>
+      <c r="CC5" s="10"/>
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="10"/>
+      <c r="CG5" s="10"/>
+      <c r="CH5" s="10"/>
+      <c r="CI5" s="10"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="10"/>
+      <c r="CL5" s="10"/>
+      <c r="CM5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
+      <c r="CQ5" s="10"/>
+      <c r="CR5" s="10"/>
+      <c r="CS5" s="10"/>
+      <c r="CT5" s="10"/>
+      <c r="CU5" s="10"/>
+      <c r="CV5" s="10"/>
+      <c r="CW5" s="10"/>
+      <c r="CX5" s="10"/>
+      <c r="CY5" s="10"/>
+      <c r="CZ5" s="10"/>
+      <c r="DA5" s="10"/>
+      <c r="DB5" s="10"/>
+      <c r="DC5" s="10"/>
+      <c r="DD5" s="10"/>
+      <c r="DE5" s="10"/>
+      <c r="DF5" s="10"/>
+      <c r="DG5" s="10"/>
+      <c r="DH5" s="10"/>
+      <c r="DI5" s="10"/>
+      <c r="DJ5" s="10"/>
+      <c r="DK5" s="10"/>
+      <c r="DL5" s="10"/>
+      <c r="DM5" s="10"/>
+      <c r="DN5" s="10"/>
+      <c r="DO5" s="10"/>
+      <c r="DP5" s="10"/>
+      <c r="DQ5" s="10"/>
+      <c r="DR5" s="10"/>
+      <c r="DS5" s="10"/>
+      <c r="DT5" s="10"/>
+      <c r="DU5" s="10"/>
+      <c r="DV5" s="10"/>
+      <c r="DW5" s="10"/>
+      <c r="DX5" s="10"/>
+      <c r="DY5" s="10"/>
+      <c r="DZ5" s="10"/>
+      <c r="EA5" s="10"/>
+      <c r="EB5" s="10"/>
+      <c r="EC5" s="10"/>
+      <c r="ED5" s="10"/>
+      <c r="EE5" s="10"/>
+      <c r="EF5" s="10"/>
+      <c r="EG5" s="10"/>
+      <c r="EH5" s="10"/>
+      <c r="EI5" s="10"/>
+      <c r="EJ5" s="10"/>
+      <c r="EK5" s="10"/>
+      <c r="EL5" s="10"/>
+      <c r="EM5" s="10"/>
+      <c r="EN5" s="10"/>
+      <c r="EO5" s="10"/>
+      <c r="EP5" s="10"/>
+      <c r="EQ5" s="10"/>
+      <c r="ER5" s="10"/>
+      <c r="ES5" s="10"/>
+      <c r="ET5" s="10"/>
+      <c r="EU5" s="10"/>
+      <c r="EV5" s="10"/>
+      <c r="EW5" s="10"/>
+      <c r="EX5" s="10"/>
+      <c r="EY5" s="10"/>
+      <c r="EZ5" s="10"/>
+      <c r="FA5" s="10"/>
+      <c r="FB5" s="10"/>
+      <c r="FC5" s="10"/>
+      <c r="FD5" s="10"/>
+      <c r="FE5" s="10"/>
+      <c r="FF5" s="10"/>
+      <c r="FG5" s="10"/>
+      <c r="FH5" s="10"/>
+      <c r="FI5" s="10"/>
+      <c r="FJ5" s="10"/>
+      <c r="FK5" s="10"/>
+      <c r="FL5" s="10"/>
+      <c r="FM5" s="10"/>
+      <c r="FN5" s="10"/>
+      <c r="FO5" s="10"/>
+      <c r="FP5" s="10"/>
+      <c r="FQ5" s="10"/>
+      <c r="FR5" s="10"/>
+      <c r="FS5" s="10"/>
+      <c r="FT5" s="10"/>
+      <c r="FU5" s="10"/>
+      <c r="FV5" s="10"/>
+      <c r="FW5" s="10"/>
+      <c r="FX5" s="10"/>
+      <c r="FY5" s="10"/>
+      <c r="FZ5" s="10"/>
+      <c r="GA5" s="10"/>
+      <c r="GB5" s="10"/>
+      <c r="GC5" s="10"/>
+      <c r="GD5" s="10"/>
+      <c r="GE5" s="10"/>
+      <c r="GF5" s="10"/>
+      <c r="GG5" s="10"/>
+      <c r="GH5" s="10"/>
+      <c r="GI5" s="10"/>
+      <c r="GJ5" s="10"/>
+      <c r="GK5" s="10"/>
+      <c r="GL5" s="10"/>
+      <c r="GM5" s="10"/>
+      <c r="GN5" s="10"/>
+      <c r="GO5" s="10"/>
+      <c r="GP5" s="10"/>
+      <c r="GQ5" s="10"/>
+      <c r="GR5" s="10"/>
+      <c r="GS5" s="10"/>
+      <c r="GT5" s="10"/>
+      <c r="GU5" s="10"/>
+      <c r="GV5" s="10"/>
+      <c r="GW5" s="10"/>
+      <c r="GX5" s="10"/>
+      <c r="GY5" s="10"/>
+      <c r="GZ5" s="10"/>
+      <c r="HA5" s="10"/>
+      <c r="HB5" s="10"/>
+      <c r="HC5" s="10"/>
+      <c r="HD5" s="10"/>
+      <c r="HE5" s="10"/>
+      <c r="HF5" s="10"/>
+      <c r="HG5" s="10"/>
+      <c r="HH5" s="10"/>
+      <c r="HI5" s="10"/>
+      <c r="HJ5" s="10"/>
+      <c r="HK5" s="10"/>
+      <c r="HL5" s="10"/>
+      <c r="HM5" s="10"/>
+      <c r="HN5" s="10"/>
+      <c r="HO5" s="10"/>
+      <c r="HP5" s="10"/>
+      <c r="HQ5" s="10"/>
+      <c r="HR5" s="10"/>
+      <c r="HS5" s="10"/>
+      <c r="HT5" s="10"/>
+      <c r="HU5" s="10"/>
+      <c r="HV5" s="10"/>
+      <c r="HW5" s="10"/>
+      <c r="HX5" s="10"/>
+      <c r="HY5" s="10"/>
+      <c r="HZ5" s="10"/>
+      <c r="IA5" s="10"/>
+      <c r="IB5" s="10"/>
+      <c r="IC5" s="10"/>
+      <c r="ID5" s="10"/>
+      <c r="IE5" s="10"/>
+      <c r="IF5" s="10"/>
+      <c r="IG5" s="10"/>
+      <c r="IH5" s="10"/>
+      <c r="II5" s="10"/>
+      <c r="IJ5" s="10"/>
+      <c r="IK5" s="10"/>
+      <c r="IL5" s="10"/>
+      <c r="IM5" s="10"/>
+      <c r="IN5" s="10"/>
+      <c r="IO5" s="10"/>
+      <c r="IP5" s="10"/>
+      <c r="IQ5" s="10"/>
+      <c r="IR5" s="10"/>
+      <c r="IS5" s="11"/>
+      <c r="IT5" s="12"/>
     </row>
-    <row r="4" spans="1:254" ht="14.7" customHeight="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>7777777777</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="IS4" s="1"/>
-      <c r="IT4" s="1"/>
-    </row>
-    <row r="5" spans="1:254" ht="14.7" customHeight="1">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="IS5" s="1"/>
-      <c r="IT5" s="1"/>
-    </row>
-    <row r="6" spans="1:254" ht="15.15" customHeight="1">
-      <c r="IS6" s="1"/>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="17"/>
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17"/>
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17"/>
+      <c r="BK6" s="17"/>
+      <c r="BL6" s="17"/>
+      <c r="BM6" s="17"/>
+      <c r="BN6" s="17"/>
+      <c r="BO6" s="17"/>
+      <c r="BP6" s="17"/>
+      <c r="BQ6" s="17"/>
+      <c r="BR6" s="17"/>
+      <c r="BS6" s="17"/>
+      <c r="BT6" s="17"/>
+      <c r="BU6" s="17"/>
+      <c r="BV6" s="17"/>
+      <c r="BW6" s="17"/>
+      <c r="BX6" s="17"/>
+      <c r="BY6" s="17"/>
+      <c r="BZ6" s="17"/>
+      <c r="CA6" s="17"/>
+      <c r="CB6" s="17"/>
+      <c r="CC6" s="17"/>
+      <c r="CD6" s="17"/>
+      <c r="CE6" s="17"/>
+      <c r="CF6" s="17"/>
+      <c r="CG6" s="17"/>
+      <c r="CH6" s="17"/>
+      <c r="CI6" s="17"/>
+      <c r="CJ6" s="17"/>
+      <c r="CK6" s="17"/>
+      <c r="CL6" s="17"/>
+      <c r="CM6" s="17"/>
+      <c r="CN6" s="17"/>
+      <c r="CO6" s="17"/>
+      <c r="CP6" s="17"/>
+      <c r="CQ6" s="17"/>
+      <c r="CR6" s="17"/>
+      <c r="CS6" s="17"/>
+      <c r="CT6" s="17"/>
+      <c r="CU6" s="17"/>
+      <c r="CV6" s="17"/>
+      <c r="CW6" s="17"/>
+      <c r="CX6" s="17"/>
+      <c r="CY6" s="17"/>
+      <c r="CZ6" s="17"/>
+      <c r="DA6" s="17"/>
+      <c r="DB6" s="17"/>
+      <c r="DC6" s="17"/>
+      <c r="DD6" s="17"/>
+      <c r="DE6" s="17"/>
+      <c r="DF6" s="17"/>
+      <c r="DG6" s="17"/>
+      <c r="DH6" s="17"/>
+      <c r="DI6" s="17"/>
+      <c r="DJ6" s="17"/>
+      <c r="DK6" s="17"/>
+      <c r="DL6" s="17"/>
+      <c r="DM6" s="17"/>
+      <c r="DN6" s="17"/>
+      <c r="DO6" s="17"/>
+      <c r="DP6" s="17"/>
+      <c r="DQ6" s="17"/>
+      <c r="DR6" s="17"/>
+      <c r="DS6" s="17"/>
+      <c r="DT6" s="17"/>
+      <c r="DU6" s="17"/>
+      <c r="DV6" s="17"/>
+      <c r="DW6" s="17"/>
+      <c r="DX6" s="17"/>
+      <c r="DY6" s="17"/>
+      <c r="DZ6" s="17"/>
+      <c r="EA6" s="17"/>
+      <c r="EB6" s="17"/>
+      <c r="EC6" s="17"/>
+      <c r="ED6" s="17"/>
+      <c r="EE6" s="17"/>
+      <c r="EF6" s="17"/>
+      <c r="EG6" s="17"/>
+      <c r="EH6" s="17"/>
+      <c r="EI6" s="17"/>
+      <c r="EJ6" s="17"/>
+      <c r="EK6" s="17"/>
+      <c r="EL6" s="17"/>
+      <c r="EM6" s="17"/>
+      <c r="EN6" s="17"/>
+      <c r="EO6" s="17"/>
+      <c r="EP6" s="17"/>
+      <c r="EQ6" s="17"/>
+      <c r="ER6" s="17"/>
+      <c r="ES6" s="17"/>
+      <c r="ET6" s="17"/>
+      <c r="EU6" s="17"/>
+      <c r="EV6" s="17"/>
+      <c r="EW6" s="17"/>
+      <c r="EX6" s="17"/>
+      <c r="EY6" s="17"/>
+      <c r="EZ6" s="17"/>
+      <c r="FA6" s="17"/>
+      <c r="FB6" s="17"/>
+      <c r="FC6" s="17"/>
+      <c r="FD6" s="17"/>
+      <c r="FE6" s="17"/>
+      <c r="FF6" s="17"/>
+      <c r="FG6" s="17"/>
+      <c r="FH6" s="17"/>
+      <c r="FI6" s="17"/>
+      <c r="FJ6" s="17"/>
+      <c r="FK6" s="17"/>
+      <c r="FL6" s="17"/>
+      <c r="FM6" s="17"/>
+      <c r="FN6" s="17"/>
+      <c r="FO6" s="17"/>
+      <c r="FP6" s="17"/>
+      <c r="FQ6" s="17"/>
+      <c r="FR6" s="17"/>
+      <c r="FS6" s="17"/>
+      <c r="FT6" s="17"/>
+      <c r="FU6" s="17"/>
+      <c r="FV6" s="17"/>
+      <c r="FW6" s="17"/>
+      <c r="FX6" s="17"/>
+      <c r="FY6" s="17"/>
+      <c r="FZ6" s="17"/>
+      <c r="GA6" s="17"/>
+      <c r="GB6" s="17"/>
+      <c r="GC6" s="17"/>
+      <c r="GD6" s="17"/>
+      <c r="GE6" s="17"/>
+      <c r="GF6" s="17"/>
+      <c r="GG6" s="17"/>
+      <c r="GH6" s="17"/>
+      <c r="GI6" s="17"/>
+      <c r="GJ6" s="17"/>
+      <c r="GK6" s="17"/>
+      <c r="GL6" s="17"/>
+      <c r="GM6" s="17"/>
+      <c r="GN6" s="17"/>
+      <c r="GO6" s="17"/>
+      <c r="GP6" s="17"/>
+      <c r="GQ6" s="17"/>
+      <c r="GR6" s="17"/>
+      <c r="GS6" s="17"/>
+      <c r="GT6" s="17"/>
+      <c r="GU6" s="17"/>
+      <c r="GV6" s="17"/>
+      <c r="GW6" s="17"/>
+      <c r="GX6" s="17"/>
+      <c r="GY6" s="17"/>
+      <c r="GZ6" s="17"/>
+      <c r="HA6" s="17"/>
+      <c r="HB6" s="17"/>
+      <c r="HC6" s="17"/>
+      <c r="HD6" s="17"/>
+      <c r="HE6" s="17"/>
+      <c r="HF6" s="17"/>
+      <c r="HG6" s="17"/>
+      <c r="HH6" s="17"/>
+      <c r="HI6" s="17"/>
+      <c r="HJ6" s="17"/>
+      <c r="HK6" s="17"/>
+      <c r="HL6" s="17"/>
+      <c r="HM6" s="17"/>
+      <c r="HN6" s="17"/>
+      <c r="HO6" s="17"/>
+      <c r="HP6" s="17"/>
+      <c r="HQ6" s="17"/>
+      <c r="HR6" s="17"/>
+      <c r="HS6" s="17"/>
+      <c r="HT6" s="17"/>
+      <c r="HU6" s="17"/>
+      <c r="HV6" s="17"/>
+      <c r="HW6" s="17"/>
+      <c r="HX6" s="17"/>
+      <c r="HY6" s="17"/>
+      <c r="HZ6" s="17"/>
+      <c r="IA6" s="17"/>
+      <c r="IB6" s="17"/>
+      <c r="IC6" s="17"/>
+      <c r="ID6" s="17"/>
+      <c r="IE6" s="17"/>
+      <c r="IF6" s="17"/>
+      <c r="IG6" s="17"/>
+      <c r="IH6" s="17"/>
+      <c r="II6" s="17"/>
+      <c r="IJ6" s="17"/>
+      <c r="IK6" s="17"/>
+      <c r="IL6" s="17"/>
+      <c r="IM6" s="17"/>
+      <c r="IN6" s="17"/>
+      <c r="IO6" s="17"/>
+      <c r="IP6" s="17"/>
+      <c r="IQ6" s="17"/>
+      <c r="IR6" s="17"/>
+      <c r="IS6" s="18"/>
+      <c r="IT6" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I2" r:id="rId1" location="" tooltip="" display="johnc@gmail.com"/>
+    <hyperlink ref="I3" r:id="rId2" location="" tooltip="" display="sam@gmail.com"/>
+    <hyperlink ref="M3" r:id="rId3" location="" tooltip="" display="daniel@gmail.com"/>
+    <hyperlink ref="I4" r:id="rId4" location="" tooltip="" display="test@gmail.com"/>
+    <hyperlink ref="I5" r:id="rId5" location="" tooltip="" display="test@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/assets/Excel/Demo_Unit_Detailstemplate.xlsx
+++ b/src/assets/Excel/Demo_Unit_Detailstemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anusha\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anusha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2CC0AA-6BA7-4A65-A28F-61BCF670BADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A7F901-2998-4A80-891D-6010962DFA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,48 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Sno</t>
   </si>
   <si>
-    <t>Unit Name - Flat no.</t>
-  </si>
-  <si>
-    <t>UnitType</t>
-  </si>
-  <si>
-    <t>OccupancyAndOwnershipStatus</t>
-  </si>
-  <si>
-    <t>OwnerFirstName</t>
-  </si>
-  <si>
-    <t>OwnerLastname</t>
-  </si>
-  <si>
-    <t>OwnerMobile</t>
-  </si>
-  <si>
-    <t>OwnerEmailID</t>
-  </si>
-  <si>
-    <t>TenantFirstName</t>
-  </si>
-  <si>
-    <t>TenantLastName</t>
-  </si>
-  <si>
-    <t>TenantMobileNumber</t>
-  </si>
-  <si>
-    <t>TenantEmail</t>
-  </si>
-  <si>
-    <t>A-001</t>
-  </si>
-  <si>
-    <t>Flat</t>
+    <t>blockname</t>
+  </si>
+  <si>
+    <t>flatno</t>
+  </si>
+  <si>
+    <t>unittype</t>
+  </si>
+  <si>
+    <t>ownershipstatus</t>
+  </si>
+  <si>
+    <t>ownerfirstname</t>
+  </si>
+  <si>
+    <t>ownerlastname</t>
+  </si>
+  <si>
+    <t>ownermobilenumber</t>
+  </si>
+  <si>
+    <t>owneremaiid</t>
+  </si>
+  <si>
+    <t>tenantfirstname</t>
+  </si>
+  <si>
+    <t>tenantlastname</t>
+  </si>
+  <si>
+    <t>tenantmobilenumber</t>
+  </si>
+  <si>
+    <t>tenantemaiid</t>
+  </si>
+  <si>
+    <t>FLAT</t>
   </si>
   <si>
     <t>Sold Owner Occupied Unit</t>
@@ -84,12 +84,6 @@
     </r>
   </si>
   <si>
-    <t>A-002</t>
-  </si>
-  <si>
-    <t>Villa</t>
-  </si>
-  <si>
     <t>Sold Tenant Occupied Unit</t>
   </si>
   <si>
@@ -127,16 +121,10 @@
     </r>
   </si>
   <si>
-    <t>A-003</t>
-  </si>
-  <si>
-    <t>Sold Vacant Unit</t>
-  </si>
-  <si>
-    <t>Angelina</t>
-  </si>
-  <si>
-    <t>Jyo</t>
+    <t>Johnone</t>
+  </si>
+  <si>
+    <t>Cruisone</t>
   </si>
   <si>
     <r>
@@ -146,14 +134,26 @@
         <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>angelina@gmail.com</t>
+      <t>test@gmail.com</t>
     </r>
   </si>
   <si>
-    <t>A-004</t>
-  </si>
-  <si>
-    <t>UnSold Vacant Unit</t>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>JAC1</t>
+  </si>
+  <si>
+    <t>JAC2</t>
+  </si>
+  <si>
+    <t>JAC3</t>
+  </si>
+  <si>
+    <t>JAC4</t>
+  </si>
+  <si>
+    <t>BLOCK1</t>
   </si>
 </sst>
 </file>
@@ -187,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -212,6 +212,37 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -225,13 +256,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -241,13 +363,55 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1413,26 +1577,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS5"/>
+  <dimension ref="A1:IV6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="15.15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
-    <col min="8" max="12" width="20.88671875" style="1" customWidth="1"/>
-    <col min="13" max="253" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7" max="11" width="20.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" style="1" customWidth="1"/>
+    <col min="13" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.25" customHeight="1">
+    <row r="1" spans="1:254" ht="32.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1469,142 +1633,1626 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4"/>
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DB1" s="4"/>
+      <c r="DC1" s="4"/>
+      <c r="DD1" s="4"/>
+      <c r="DE1" s="4"/>
+      <c r="DF1" s="4"/>
+      <c r="DG1" s="4"/>
+      <c r="DH1" s="4"/>
+      <c r="DI1" s="4"/>
+      <c r="DJ1" s="4"/>
+      <c r="DK1" s="4"/>
+      <c r="DL1" s="4"/>
+      <c r="DM1" s="4"/>
+      <c r="DN1" s="4"/>
+      <c r="DO1" s="4"/>
+      <c r="DP1" s="4"/>
+      <c r="DQ1" s="4"/>
+      <c r="DR1" s="4"/>
+      <c r="DS1" s="4"/>
+      <c r="DT1" s="4"/>
+      <c r="DU1" s="4"/>
+      <c r="DV1" s="4"/>
+      <c r="DW1" s="4"/>
+      <c r="DX1" s="4"/>
+      <c r="DY1" s="4"/>
+      <c r="DZ1" s="4"/>
+      <c r="EA1" s="4"/>
+      <c r="EB1" s="4"/>
+      <c r="EC1" s="4"/>
+      <c r="ED1" s="4"/>
+      <c r="EE1" s="4"/>
+      <c r="EF1" s="4"/>
+      <c r="EG1" s="4"/>
+      <c r="EH1" s="4"/>
+      <c r="EI1" s="4"/>
+      <c r="EJ1" s="4"/>
+      <c r="EK1" s="4"/>
+      <c r="EL1" s="4"/>
+      <c r="EM1" s="4"/>
+      <c r="EN1" s="4"/>
+      <c r="EO1" s="4"/>
+      <c r="EP1" s="4"/>
+      <c r="EQ1" s="4"/>
+      <c r="ER1" s="4"/>
+      <c r="ES1" s="4"/>
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="4"/>
+      <c r="EV1" s="4"/>
+      <c r="EW1" s="4"/>
+      <c r="EX1" s="4"/>
+      <c r="EY1" s="4"/>
+      <c r="EZ1" s="4"/>
+      <c r="FA1" s="4"/>
+      <c r="FB1" s="4"/>
+      <c r="FC1" s="4"/>
+      <c r="FD1" s="4"/>
+      <c r="FE1" s="4"/>
+      <c r="FF1" s="4"/>
+      <c r="FG1" s="4"/>
+      <c r="FH1" s="4"/>
+      <c r="FI1" s="4"/>
+      <c r="FJ1" s="4"/>
+      <c r="FK1" s="4"/>
+      <c r="FL1" s="4"/>
+      <c r="FM1" s="4"/>
+      <c r="FN1" s="4"/>
+      <c r="FO1" s="4"/>
+      <c r="FP1" s="4"/>
+      <c r="FQ1" s="4"/>
+      <c r="FR1" s="4"/>
+      <c r="FS1" s="4"/>
+      <c r="FT1" s="4"/>
+      <c r="FU1" s="4"/>
+      <c r="FV1" s="4"/>
+      <c r="FW1" s="4"/>
+      <c r="FX1" s="4"/>
+      <c r="FY1" s="4"/>
+      <c r="FZ1" s="4"/>
+      <c r="GA1" s="4"/>
+      <c r="GB1" s="4"/>
+      <c r="GC1" s="4"/>
+      <c r="GD1" s="4"/>
+      <c r="GE1" s="4"/>
+      <c r="GF1" s="4"/>
+      <c r="GG1" s="4"/>
+      <c r="GH1" s="4"/>
+      <c r="GI1" s="4"/>
+      <c r="GJ1" s="4"/>
+      <c r="GK1" s="4"/>
+      <c r="GL1" s="4"/>
+      <c r="GM1" s="4"/>
+      <c r="GN1" s="4"/>
+      <c r="GO1" s="4"/>
+      <c r="GP1" s="4"/>
+      <c r="GQ1" s="4"/>
+      <c r="GR1" s="4"/>
+      <c r="GS1" s="4"/>
+      <c r="GT1" s="4"/>
+      <c r="GU1" s="4"/>
+      <c r="GV1" s="4"/>
+      <c r="GW1" s="4"/>
+      <c r="GX1" s="4"/>
+      <c r="GY1" s="4"/>
+      <c r="GZ1" s="4"/>
+      <c r="HA1" s="4"/>
+      <c r="HB1" s="4"/>
+      <c r="HC1" s="4"/>
+      <c r="HD1" s="4"/>
+      <c r="HE1" s="4"/>
+      <c r="HF1" s="4"/>
+      <c r="HG1" s="4"/>
+      <c r="HH1" s="4"/>
+      <c r="HI1" s="4"/>
+      <c r="HJ1" s="4"/>
+      <c r="HK1" s="4"/>
+      <c r="HL1" s="4"/>
+      <c r="HM1" s="4"/>
+      <c r="HN1" s="4"/>
+      <c r="HO1" s="4"/>
+      <c r="HP1" s="4"/>
+      <c r="HQ1" s="4"/>
+      <c r="HR1" s="4"/>
+      <c r="HS1" s="4"/>
+      <c r="HT1" s="4"/>
+      <c r="HU1" s="4"/>
+      <c r="HV1" s="4"/>
+      <c r="HW1" s="4"/>
+      <c r="HX1" s="4"/>
+      <c r="HY1" s="4"/>
+      <c r="HZ1" s="4"/>
+      <c r="IA1" s="4"/>
+      <c r="IB1" s="4"/>
+      <c r="IC1" s="4"/>
+      <c r="ID1" s="4"/>
+      <c r="IE1" s="4"/>
+      <c r="IF1" s="4"/>
+      <c r="IG1" s="4"/>
+      <c r="IH1" s="4"/>
+      <c r="II1" s="4"/>
+      <c r="IJ1" s="4"/>
+      <c r="IK1" s="4"/>
+      <c r="IL1" s="4"/>
+      <c r="IM1" s="4"/>
+      <c r="IN1" s="4"/>
+      <c r="IO1" s="4"/>
+      <c r="IP1" s="4"/>
+      <c r="IQ1" s="4"/>
+      <c r="IR1" s="4"/>
+      <c r="IS1" s="5"/>
+      <c r="IT1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="3">
+    <row r="2" spans="1:254" ht="26.7" customHeight="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="8">
         <v>9886819118</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="10"/>
+      <c r="BX2" s="10"/>
+      <c r="BY2" s="10"/>
+      <c r="BZ2" s="10"/>
+      <c r="CA2" s="10"/>
+      <c r="CB2" s="10"/>
+      <c r="CC2" s="10"/>
+      <c r="CD2" s="10"/>
+      <c r="CE2" s="10"/>
+      <c r="CF2" s="10"/>
+      <c r="CG2" s="10"/>
+      <c r="CH2" s="10"/>
+      <c r="CI2" s="10"/>
+      <c r="CJ2" s="10"/>
+      <c r="CK2" s="10"/>
+      <c r="CL2" s="10"/>
+      <c r="CM2" s="10"/>
+      <c r="CN2" s="10"/>
+      <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
+      <c r="CQ2" s="10"/>
+      <c r="CR2" s="10"/>
+      <c r="CS2" s="10"/>
+      <c r="CT2" s="10"/>
+      <c r="CU2" s="10"/>
+      <c r="CV2" s="10"/>
+      <c r="CW2" s="10"/>
+      <c r="CX2" s="10"/>
+      <c r="CY2" s="10"/>
+      <c r="CZ2" s="10"/>
+      <c r="DA2" s="10"/>
+      <c r="DB2" s="10"/>
+      <c r="DC2" s="10"/>
+      <c r="DD2" s="10"/>
+      <c r="DE2" s="10"/>
+      <c r="DF2" s="10"/>
+      <c r="DG2" s="10"/>
+      <c r="DH2" s="10"/>
+      <c r="DI2" s="10"/>
+      <c r="DJ2" s="10"/>
+      <c r="DK2" s="10"/>
+      <c r="DL2" s="10"/>
+      <c r="DM2" s="10"/>
+      <c r="DN2" s="10"/>
+      <c r="DO2" s="10"/>
+      <c r="DP2" s="10"/>
+      <c r="DQ2" s="10"/>
+      <c r="DR2" s="10"/>
+      <c r="DS2" s="10"/>
+      <c r="DT2" s="10"/>
+      <c r="DU2" s="10"/>
+      <c r="DV2" s="10"/>
+      <c r="DW2" s="10"/>
+      <c r="DX2" s="10"/>
+      <c r="DY2" s="10"/>
+      <c r="DZ2" s="10"/>
+      <c r="EA2" s="10"/>
+      <c r="EB2" s="10"/>
+      <c r="EC2" s="10"/>
+      <c r="ED2" s="10"/>
+      <c r="EE2" s="10"/>
+      <c r="EF2" s="10"/>
+      <c r="EG2" s="10"/>
+      <c r="EH2" s="10"/>
+      <c r="EI2" s="10"/>
+      <c r="EJ2" s="10"/>
+      <c r="EK2" s="10"/>
+      <c r="EL2" s="10"/>
+      <c r="EM2" s="10"/>
+      <c r="EN2" s="10"/>
+      <c r="EO2" s="10"/>
+      <c r="EP2" s="10"/>
+      <c r="EQ2" s="10"/>
+      <c r="ER2" s="10"/>
+      <c r="ES2" s="10"/>
+      <c r="ET2" s="10"/>
+      <c r="EU2" s="10"/>
+      <c r="EV2" s="10"/>
+      <c r="EW2" s="10"/>
+      <c r="EX2" s="10"/>
+      <c r="EY2" s="10"/>
+      <c r="EZ2" s="10"/>
+      <c r="FA2" s="10"/>
+      <c r="FB2" s="10"/>
+      <c r="FC2" s="10"/>
+      <c r="FD2" s="10"/>
+      <c r="FE2" s="10"/>
+      <c r="FF2" s="10"/>
+      <c r="FG2" s="10"/>
+      <c r="FH2" s="10"/>
+      <c r="FI2" s="10"/>
+      <c r="FJ2" s="10"/>
+      <c r="FK2" s="10"/>
+      <c r="FL2" s="10"/>
+      <c r="FM2" s="10"/>
+      <c r="FN2" s="10"/>
+      <c r="FO2" s="10"/>
+      <c r="FP2" s="10"/>
+      <c r="FQ2" s="10"/>
+      <c r="FR2" s="10"/>
+      <c r="FS2" s="10"/>
+      <c r="FT2" s="10"/>
+      <c r="FU2" s="10"/>
+      <c r="FV2" s="10"/>
+      <c r="FW2" s="10"/>
+      <c r="FX2" s="10"/>
+      <c r="FY2" s="10"/>
+      <c r="FZ2" s="10"/>
+      <c r="GA2" s="10"/>
+      <c r="GB2" s="10"/>
+      <c r="GC2" s="10"/>
+      <c r="GD2" s="10"/>
+      <c r="GE2" s="10"/>
+      <c r="GF2" s="10"/>
+      <c r="GG2" s="10"/>
+      <c r="GH2" s="10"/>
+      <c r="GI2" s="10"/>
+      <c r="GJ2" s="10"/>
+      <c r="GK2" s="10"/>
+      <c r="GL2" s="10"/>
+      <c r="GM2" s="10"/>
+      <c r="GN2" s="10"/>
+      <c r="GO2" s="10"/>
+      <c r="GP2" s="10"/>
+      <c r="GQ2" s="10"/>
+      <c r="GR2" s="10"/>
+      <c r="GS2" s="10"/>
+      <c r="GT2" s="10"/>
+      <c r="GU2" s="10"/>
+      <c r="GV2" s="10"/>
+      <c r="GW2" s="10"/>
+      <c r="GX2" s="10"/>
+      <c r="GY2" s="10"/>
+      <c r="GZ2" s="10"/>
+      <c r="HA2" s="10"/>
+      <c r="HB2" s="10"/>
+      <c r="HC2" s="10"/>
+      <c r="HD2" s="10"/>
+      <c r="HE2" s="10"/>
+      <c r="HF2" s="10"/>
+      <c r="HG2" s="10"/>
+      <c r="HH2" s="10"/>
+      <c r="HI2" s="10"/>
+      <c r="HJ2" s="10"/>
+      <c r="HK2" s="10"/>
+      <c r="HL2" s="10"/>
+      <c r="HM2" s="10"/>
+      <c r="HN2" s="10"/>
+      <c r="HO2" s="10"/>
+      <c r="HP2" s="10"/>
+      <c r="HQ2" s="10"/>
+      <c r="HR2" s="10"/>
+      <c r="HS2" s="10"/>
+      <c r="HT2" s="10"/>
+      <c r="HU2" s="10"/>
+      <c r="HV2" s="10"/>
+      <c r="HW2" s="10"/>
+      <c r="HX2" s="10"/>
+      <c r="HY2" s="10"/>
+      <c r="HZ2" s="10"/>
+      <c r="IA2" s="10"/>
+      <c r="IB2" s="10"/>
+      <c r="IC2" s="10"/>
+      <c r="ID2" s="10"/>
+      <c r="IE2" s="10"/>
+      <c r="IF2" s="10"/>
+      <c r="IG2" s="10"/>
+      <c r="IH2" s="10"/>
+      <c r="II2" s="10"/>
+      <c r="IJ2" s="10"/>
+      <c r="IK2" s="10"/>
+      <c r="IL2" s="10"/>
+      <c r="IM2" s="10"/>
+      <c r="IN2" s="10"/>
+      <c r="IO2" s="10"/>
+      <c r="IP2" s="10"/>
+      <c r="IQ2" s="10"/>
+      <c r="IR2" s="10"/>
+      <c r="IS2" s="11"/>
+      <c r="IT2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="14.7" customHeight="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:254" ht="26.7" customHeight="1">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="8">
+        <v>9886819118</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4">
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="8">
         <v>9886819118</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="10"/>
+      <c r="CA3" s="10"/>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="10"/>
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
+      <c r="CQ3" s="10"/>
+      <c r="CR3" s="10"/>
+      <c r="CS3" s="10"/>
+      <c r="CT3" s="10"/>
+      <c r="CU3" s="10"/>
+      <c r="CV3" s="10"/>
+      <c r="CW3" s="10"/>
+      <c r="CX3" s="10"/>
+      <c r="CY3" s="10"/>
+      <c r="CZ3" s="10"/>
+      <c r="DA3" s="10"/>
+      <c r="DB3" s="10"/>
+      <c r="DC3" s="10"/>
+      <c r="DD3" s="10"/>
+      <c r="DE3" s="10"/>
+      <c r="DF3" s="10"/>
+      <c r="DG3" s="10"/>
+      <c r="DH3" s="10"/>
+      <c r="DI3" s="10"/>
+      <c r="DJ3" s="10"/>
+      <c r="DK3" s="10"/>
+      <c r="DL3" s="10"/>
+      <c r="DM3" s="10"/>
+      <c r="DN3" s="10"/>
+      <c r="DO3" s="10"/>
+      <c r="DP3" s="10"/>
+      <c r="DQ3" s="10"/>
+      <c r="DR3" s="10"/>
+      <c r="DS3" s="10"/>
+      <c r="DT3" s="10"/>
+      <c r="DU3" s="10"/>
+      <c r="DV3" s="10"/>
+      <c r="DW3" s="10"/>
+      <c r="DX3" s="10"/>
+      <c r="DY3" s="10"/>
+      <c r="DZ3" s="10"/>
+      <c r="EA3" s="10"/>
+      <c r="EB3" s="10"/>
+      <c r="EC3" s="10"/>
+      <c r="ED3" s="10"/>
+      <c r="EE3" s="10"/>
+      <c r="EF3" s="10"/>
+      <c r="EG3" s="10"/>
+      <c r="EH3" s="10"/>
+      <c r="EI3" s="10"/>
+      <c r="EJ3" s="10"/>
+      <c r="EK3" s="10"/>
+      <c r="EL3" s="10"/>
+      <c r="EM3" s="10"/>
+      <c r="EN3" s="10"/>
+      <c r="EO3" s="10"/>
+      <c r="EP3" s="10"/>
+      <c r="EQ3" s="10"/>
+      <c r="ER3" s="10"/>
+      <c r="ES3" s="10"/>
+      <c r="ET3" s="10"/>
+      <c r="EU3" s="10"/>
+      <c r="EV3" s="10"/>
+      <c r="EW3" s="10"/>
+      <c r="EX3" s="10"/>
+      <c r="EY3" s="10"/>
+      <c r="EZ3" s="10"/>
+      <c r="FA3" s="10"/>
+      <c r="FB3" s="10"/>
+      <c r="FC3" s="10"/>
+      <c r="FD3" s="10"/>
+      <c r="FE3" s="10"/>
+      <c r="FF3" s="10"/>
+      <c r="FG3" s="10"/>
+      <c r="FH3" s="10"/>
+      <c r="FI3" s="10"/>
+      <c r="FJ3" s="10"/>
+      <c r="FK3" s="10"/>
+      <c r="FL3" s="10"/>
+      <c r="FM3" s="10"/>
+      <c r="FN3" s="10"/>
+      <c r="FO3" s="10"/>
+      <c r="FP3" s="10"/>
+      <c r="FQ3" s="10"/>
+      <c r="FR3" s="10"/>
+      <c r="FS3" s="10"/>
+      <c r="FT3" s="10"/>
+      <c r="FU3" s="10"/>
+      <c r="FV3" s="10"/>
+      <c r="FW3" s="10"/>
+      <c r="FX3" s="10"/>
+      <c r="FY3" s="10"/>
+      <c r="FZ3" s="10"/>
+      <c r="GA3" s="10"/>
+      <c r="GB3" s="10"/>
+      <c r="GC3" s="10"/>
+      <c r="GD3" s="10"/>
+      <c r="GE3" s="10"/>
+      <c r="GF3" s="10"/>
+      <c r="GG3" s="10"/>
+      <c r="GH3" s="10"/>
+      <c r="GI3" s="10"/>
+      <c r="GJ3" s="10"/>
+      <c r="GK3" s="10"/>
+      <c r="GL3" s="10"/>
+      <c r="GM3" s="10"/>
+      <c r="GN3" s="10"/>
+      <c r="GO3" s="10"/>
+      <c r="GP3" s="10"/>
+      <c r="GQ3" s="10"/>
+      <c r="GR3" s="10"/>
+      <c r="GS3" s="10"/>
+      <c r="GT3" s="10"/>
+      <c r="GU3" s="10"/>
+      <c r="GV3" s="10"/>
+      <c r="GW3" s="10"/>
+      <c r="GX3" s="10"/>
+      <c r="GY3" s="10"/>
+      <c r="GZ3" s="10"/>
+      <c r="HA3" s="10"/>
+      <c r="HB3" s="10"/>
+      <c r="HC3" s="10"/>
+      <c r="HD3" s="10"/>
+      <c r="HE3" s="10"/>
+      <c r="HF3" s="10"/>
+      <c r="HG3" s="10"/>
+      <c r="HH3" s="10"/>
+      <c r="HI3" s="10"/>
+      <c r="HJ3" s="10"/>
+      <c r="HK3" s="10"/>
+      <c r="HL3" s="10"/>
+      <c r="HM3" s="10"/>
+      <c r="HN3" s="10"/>
+      <c r="HO3" s="10"/>
+      <c r="HP3" s="10"/>
+      <c r="HQ3" s="10"/>
+      <c r="HR3" s="10"/>
+      <c r="HS3" s="10"/>
+      <c r="HT3" s="10"/>
+      <c r="HU3" s="10"/>
+      <c r="HV3" s="10"/>
+      <c r="HW3" s="10"/>
+      <c r="HX3" s="10"/>
+      <c r="HY3" s="10"/>
+      <c r="HZ3" s="10"/>
+      <c r="IA3" s="10"/>
+      <c r="IB3" s="10"/>
+      <c r="IC3" s="10"/>
+      <c r="ID3" s="10"/>
+      <c r="IE3" s="10"/>
+      <c r="IF3" s="10"/>
+      <c r="IG3" s="10"/>
+      <c r="IH3" s="10"/>
+      <c r="II3" s="10"/>
+      <c r="IJ3" s="10"/>
+      <c r="IK3" s="10"/>
+      <c r="IL3" s="10"/>
+      <c r="IM3" s="10"/>
+      <c r="IN3" s="10"/>
+      <c r="IO3" s="10"/>
+      <c r="IP3" s="10"/>
+      <c r="IQ3" s="10"/>
+      <c r="IR3" s="10"/>
+      <c r="IS3" s="11"/>
+      <c r="IT3" s="12"/>
+    </row>
+    <row r="4" spans="1:254" ht="26.7" customHeight="1">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4">
-        <v>6666666666</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="H4" s="8">
+        <v>9886819118</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="10"/>
+      <c r="BW4" s="10"/>
+      <c r="BX4" s="10"/>
+      <c r="BY4" s="10"/>
+      <c r="BZ4" s="10"/>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="10"/>
+      <c r="CC4" s="10"/>
+      <c r="CD4" s="10"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10"/>
+      <c r="CH4" s="10"/>
+      <c r="CI4" s="10"/>
+      <c r="CJ4" s="10"/>
+      <c r="CK4" s="10"/>
+      <c r="CL4" s="10"/>
+      <c r="CM4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
+      <c r="CQ4" s="10"/>
+      <c r="CR4" s="10"/>
+      <c r="CS4" s="10"/>
+      <c r="CT4" s="10"/>
+      <c r="CU4" s="10"/>
+      <c r="CV4" s="10"/>
+      <c r="CW4" s="10"/>
+      <c r="CX4" s="10"/>
+      <c r="CY4" s="10"/>
+      <c r="CZ4" s="10"/>
+      <c r="DA4" s="10"/>
+      <c r="DB4" s="10"/>
+      <c r="DC4" s="10"/>
+      <c r="DD4" s="10"/>
+      <c r="DE4" s="10"/>
+      <c r="DF4" s="10"/>
+      <c r="DG4" s="10"/>
+      <c r="DH4" s="10"/>
+      <c r="DI4" s="10"/>
+      <c r="DJ4" s="10"/>
+      <c r="DK4" s="10"/>
+      <c r="DL4" s="10"/>
+      <c r="DM4" s="10"/>
+      <c r="DN4" s="10"/>
+      <c r="DO4" s="10"/>
+      <c r="DP4" s="10"/>
+      <c r="DQ4" s="10"/>
+      <c r="DR4" s="10"/>
+      <c r="DS4" s="10"/>
+      <c r="DT4" s="10"/>
+      <c r="DU4" s="10"/>
+      <c r="DV4" s="10"/>
+      <c r="DW4" s="10"/>
+      <c r="DX4" s="10"/>
+      <c r="DY4" s="10"/>
+      <c r="DZ4" s="10"/>
+      <c r="EA4" s="10"/>
+      <c r="EB4" s="10"/>
+      <c r="EC4" s="10"/>
+      <c r="ED4" s="10"/>
+      <c r="EE4" s="10"/>
+      <c r="EF4" s="10"/>
+      <c r="EG4" s="10"/>
+      <c r="EH4" s="10"/>
+      <c r="EI4" s="10"/>
+      <c r="EJ4" s="10"/>
+      <c r="EK4" s="10"/>
+      <c r="EL4" s="10"/>
+      <c r="EM4" s="10"/>
+      <c r="EN4" s="10"/>
+      <c r="EO4" s="10"/>
+      <c r="EP4" s="10"/>
+      <c r="EQ4" s="10"/>
+      <c r="ER4" s="10"/>
+      <c r="ES4" s="10"/>
+      <c r="ET4" s="10"/>
+      <c r="EU4" s="10"/>
+      <c r="EV4" s="10"/>
+      <c r="EW4" s="10"/>
+      <c r="EX4" s="10"/>
+      <c r="EY4" s="10"/>
+      <c r="EZ4" s="10"/>
+      <c r="FA4" s="10"/>
+      <c r="FB4" s="10"/>
+      <c r="FC4" s="10"/>
+      <c r="FD4" s="10"/>
+      <c r="FE4" s="10"/>
+      <c r="FF4" s="10"/>
+      <c r="FG4" s="10"/>
+      <c r="FH4" s="10"/>
+      <c r="FI4" s="10"/>
+      <c r="FJ4" s="10"/>
+      <c r="FK4" s="10"/>
+      <c r="FL4" s="10"/>
+      <c r="FM4" s="10"/>
+      <c r="FN4" s="10"/>
+      <c r="FO4" s="10"/>
+      <c r="FP4" s="10"/>
+      <c r="FQ4" s="10"/>
+      <c r="FR4" s="10"/>
+      <c r="FS4" s="10"/>
+      <c r="FT4" s="10"/>
+      <c r="FU4" s="10"/>
+      <c r="FV4" s="10"/>
+      <c r="FW4" s="10"/>
+      <c r="FX4" s="10"/>
+      <c r="FY4" s="10"/>
+      <c r="FZ4" s="10"/>
+      <c r="GA4" s="10"/>
+      <c r="GB4" s="10"/>
+      <c r="GC4" s="10"/>
+      <c r="GD4" s="10"/>
+      <c r="GE4" s="10"/>
+      <c r="GF4" s="10"/>
+      <c r="GG4" s="10"/>
+      <c r="GH4" s="10"/>
+      <c r="GI4" s="10"/>
+      <c r="GJ4" s="10"/>
+      <c r="GK4" s="10"/>
+      <c r="GL4" s="10"/>
+      <c r="GM4" s="10"/>
+      <c r="GN4" s="10"/>
+      <c r="GO4" s="10"/>
+      <c r="GP4" s="10"/>
+      <c r="GQ4" s="10"/>
+      <c r="GR4" s="10"/>
+      <c r="GS4" s="10"/>
+      <c r="GT4" s="10"/>
+      <c r="GU4" s="10"/>
+      <c r="GV4" s="10"/>
+      <c r="GW4" s="10"/>
+      <c r="GX4" s="10"/>
+      <c r="GY4" s="10"/>
+      <c r="GZ4" s="10"/>
+      <c r="HA4" s="10"/>
+      <c r="HB4" s="10"/>
+      <c r="HC4" s="10"/>
+      <c r="HD4" s="10"/>
+      <c r="HE4" s="10"/>
+      <c r="HF4" s="10"/>
+      <c r="HG4" s="10"/>
+      <c r="HH4" s="10"/>
+      <c r="HI4" s="10"/>
+      <c r="HJ4" s="10"/>
+      <c r="HK4" s="10"/>
+      <c r="HL4" s="10"/>
+      <c r="HM4" s="10"/>
+      <c r="HN4" s="10"/>
+      <c r="HO4" s="10"/>
+      <c r="HP4" s="10"/>
+      <c r="HQ4" s="10"/>
+      <c r="HR4" s="10"/>
+      <c r="HS4" s="10"/>
+      <c r="HT4" s="10"/>
+      <c r="HU4" s="10"/>
+      <c r="HV4" s="10"/>
+      <c r="HW4" s="10"/>
+      <c r="HX4" s="10"/>
+      <c r="HY4" s="10"/>
+      <c r="HZ4" s="10"/>
+      <c r="IA4" s="10"/>
+      <c r="IB4" s="10"/>
+      <c r="IC4" s="10"/>
+      <c r="ID4" s="10"/>
+      <c r="IE4" s="10"/>
+      <c r="IF4" s="10"/>
+      <c r="IG4" s="10"/>
+      <c r="IH4" s="10"/>
+      <c r="II4" s="10"/>
+      <c r="IJ4" s="10"/>
+      <c r="IK4" s="10"/>
+      <c r="IL4" s="10"/>
+      <c r="IM4" s="10"/>
+      <c r="IN4" s="10"/>
+      <c r="IO4" s="10"/>
+      <c r="IP4" s="10"/>
+      <c r="IQ4" s="10"/>
+      <c r="IR4" s="10"/>
+      <c r="IS4" s="11"/>
+      <c r="IT4" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="14.7" customHeight="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:254" ht="26.7" customHeight="1">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="8">
+        <v>9886819118</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="4">
-        <v>9886819118</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="10"/>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="10"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="10"/>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="10"/>
+      <c r="BV5" s="10"/>
+      <c r="BW5" s="10"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="10"/>
+      <c r="BZ5" s="10"/>
+      <c r="CA5" s="10"/>
+      <c r="CB5" s="10"/>
+      <c r="CC5" s="10"/>
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="10"/>
+      <c r="CG5" s="10"/>
+      <c r="CH5" s="10"/>
+      <c r="CI5" s="10"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="10"/>
+      <c r="CL5" s="10"/>
+      <c r="CM5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
+      <c r="CQ5" s="10"/>
+      <c r="CR5" s="10"/>
+      <c r="CS5" s="10"/>
+      <c r="CT5" s="10"/>
+      <c r="CU5" s="10"/>
+      <c r="CV5" s="10"/>
+      <c r="CW5" s="10"/>
+      <c r="CX5" s="10"/>
+      <c r="CY5" s="10"/>
+      <c r="CZ5" s="10"/>
+      <c r="DA5" s="10"/>
+      <c r="DB5" s="10"/>
+      <c r="DC5" s="10"/>
+      <c r="DD5" s="10"/>
+      <c r="DE5" s="10"/>
+      <c r="DF5" s="10"/>
+      <c r="DG5" s="10"/>
+      <c r="DH5" s="10"/>
+      <c r="DI5" s="10"/>
+      <c r="DJ5" s="10"/>
+      <c r="DK5" s="10"/>
+      <c r="DL5" s="10"/>
+      <c r="DM5" s="10"/>
+      <c r="DN5" s="10"/>
+      <c r="DO5" s="10"/>
+      <c r="DP5" s="10"/>
+      <c r="DQ5" s="10"/>
+      <c r="DR5" s="10"/>
+      <c r="DS5" s="10"/>
+      <c r="DT5" s="10"/>
+      <c r="DU5" s="10"/>
+      <c r="DV5" s="10"/>
+      <c r="DW5" s="10"/>
+      <c r="DX5" s="10"/>
+      <c r="DY5" s="10"/>
+      <c r="DZ5" s="10"/>
+      <c r="EA5" s="10"/>
+      <c r="EB5" s="10"/>
+      <c r="EC5" s="10"/>
+      <c r="ED5" s="10"/>
+      <c r="EE5" s="10"/>
+      <c r="EF5" s="10"/>
+      <c r="EG5" s="10"/>
+      <c r="EH5" s="10"/>
+      <c r="EI5" s="10"/>
+      <c r="EJ5" s="10"/>
+      <c r="EK5" s="10"/>
+      <c r="EL5" s="10"/>
+      <c r="EM5" s="10"/>
+      <c r="EN5" s="10"/>
+      <c r="EO5" s="10"/>
+      <c r="EP5" s="10"/>
+      <c r="EQ5" s="10"/>
+      <c r="ER5" s="10"/>
+      <c r="ES5" s="10"/>
+      <c r="ET5" s="10"/>
+      <c r="EU5" s="10"/>
+      <c r="EV5" s="10"/>
+      <c r="EW5" s="10"/>
+      <c r="EX5" s="10"/>
+      <c r="EY5" s="10"/>
+      <c r="EZ5" s="10"/>
+      <c r="FA5" s="10"/>
+      <c r="FB5" s="10"/>
+      <c r="FC5" s="10"/>
+      <c r="FD5" s="10"/>
+      <c r="FE5" s="10"/>
+      <c r="FF5" s="10"/>
+      <c r="FG5" s="10"/>
+      <c r="FH5" s="10"/>
+      <c r="FI5" s="10"/>
+      <c r="FJ5" s="10"/>
+      <c r="FK5" s="10"/>
+      <c r="FL5" s="10"/>
+      <c r="FM5" s="10"/>
+      <c r="FN5" s="10"/>
+      <c r="FO5" s="10"/>
+      <c r="FP5" s="10"/>
+      <c r="FQ5" s="10"/>
+      <c r="FR5" s="10"/>
+      <c r="FS5" s="10"/>
+      <c r="FT5" s="10"/>
+      <c r="FU5" s="10"/>
+      <c r="FV5" s="10"/>
+      <c r="FW5" s="10"/>
+      <c r="FX5" s="10"/>
+      <c r="FY5" s="10"/>
+      <c r="FZ5" s="10"/>
+      <c r="GA5" s="10"/>
+      <c r="GB5" s="10"/>
+      <c r="GC5" s="10"/>
+      <c r="GD5" s="10"/>
+      <c r="GE5" s="10"/>
+      <c r="GF5" s="10"/>
+      <c r="GG5" s="10"/>
+      <c r="GH5" s="10"/>
+      <c r="GI5" s="10"/>
+      <c r="GJ5" s="10"/>
+      <c r="GK5" s="10"/>
+      <c r="GL5" s="10"/>
+      <c r="GM5" s="10"/>
+      <c r="GN5" s="10"/>
+      <c r="GO5" s="10"/>
+      <c r="GP5" s="10"/>
+      <c r="GQ5" s="10"/>
+      <c r="GR5" s="10"/>
+      <c r="GS5" s="10"/>
+      <c r="GT5" s="10"/>
+      <c r="GU5" s="10"/>
+      <c r="GV5" s="10"/>
+      <c r="GW5" s="10"/>
+      <c r="GX5" s="10"/>
+      <c r="GY5" s="10"/>
+      <c r="GZ5" s="10"/>
+      <c r="HA5" s="10"/>
+      <c r="HB5" s="10"/>
+      <c r="HC5" s="10"/>
+      <c r="HD5" s="10"/>
+      <c r="HE5" s="10"/>
+      <c r="HF5" s="10"/>
+      <c r="HG5" s="10"/>
+      <c r="HH5" s="10"/>
+      <c r="HI5" s="10"/>
+      <c r="HJ5" s="10"/>
+      <c r="HK5" s="10"/>
+      <c r="HL5" s="10"/>
+      <c r="HM5" s="10"/>
+      <c r="HN5" s="10"/>
+      <c r="HO5" s="10"/>
+      <c r="HP5" s="10"/>
+      <c r="HQ5" s="10"/>
+      <c r="HR5" s="10"/>
+      <c r="HS5" s="10"/>
+      <c r="HT5" s="10"/>
+      <c r="HU5" s="10"/>
+      <c r="HV5" s="10"/>
+      <c r="HW5" s="10"/>
+      <c r="HX5" s="10"/>
+      <c r="HY5" s="10"/>
+      <c r="HZ5" s="10"/>
+      <c r="IA5" s="10"/>
+      <c r="IB5" s="10"/>
+      <c r="IC5" s="10"/>
+      <c r="ID5" s="10"/>
+      <c r="IE5" s="10"/>
+      <c r="IF5" s="10"/>
+      <c r="IG5" s="10"/>
+      <c r="IH5" s="10"/>
+      <c r="II5" s="10"/>
+      <c r="IJ5" s="10"/>
+      <c r="IK5" s="10"/>
+      <c r="IL5" s="10"/>
+      <c r="IM5" s="10"/>
+      <c r="IN5" s="10"/>
+      <c r="IO5" s="10"/>
+      <c r="IP5" s="10"/>
+      <c r="IQ5" s="10"/>
+      <c r="IR5" s="10"/>
+      <c r="IS5" s="11"/>
+      <c r="IT5" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="14.7" customHeight="1">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+    <row r="6" spans="1:254" ht="14.7" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="17"/>
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17"/>
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17"/>
+      <c r="BK6" s="17"/>
+      <c r="BL6" s="17"/>
+      <c r="BM6" s="17"/>
+      <c r="BN6" s="17"/>
+      <c r="BO6" s="17"/>
+      <c r="BP6" s="17"/>
+      <c r="BQ6" s="17"/>
+      <c r="BR6" s="17"/>
+      <c r="BS6" s="17"/>
+      <c r="BT6" s="17"/>
+      <c r="BU6" s="17"/>
+      <c r="BV6" s="17"/>
+      <c r="BW6" s="17"/>
+      <c r="BX6" s="17"/>
+      <c r="BY6" s="17"/>
+      <c r="BZ6" s="17"/>
+      <c r="CA6" s="17"/>
+      <c r="CB6" s="17"/>
+      <c r="CC6" s="17"/>
+      <c r="CD6" s="17"/>
+      <c r="CE6" s="17"/>
+      <c r="CF6" s="17"/>
+      <c r="CG6" s="17"/>
+      <c r="CH6" s="17"/>
+      <c r="CI6" s="17"/>
+      <c r="CJ6" s="17"/>
+      <c r="CK6" s="17"/>
+      <c r="CL6" s="17"/>
+      <c r="CM6" s="17"/>
+      <c r="CN6" s="17"/>
+      <c r="CO6" s="17"/>
+      <c r="CP6" s="17"/>
+      <c r="CQ6" s="17"/>
+      <c r="CR6" s="17"/>
+      <c r="CS6" s="17"/>
+      <c r="CT6" s="17"/>
+      <c r="CU6" s="17"/>
+      <c r="CV6" s="17"/>
+      <c r="CW6" s="17"/>
+      <c r="CX6" s="17"/>
+      <c r="CY6" s="17"/>
+      <c r="CZ6" s="17"/>
+      <c r="DA6" s="17"/>
+      <c r="DB6" s="17"/>
+      <c r="DC6" s="17"/>
+      <c r="DD6" s="17"/>
+      <c r="DE6" s="17"/>
+      <c r="DF6" s="17"/>
+      <c r="DG6" s="17"/>
+      <c r="DH6" s="17"/>
+      <c r="DI6" s="17"/>
+      <c r="DJ6" s="17"/>
+      <c r="DK6" s="17"/>
+      <c r="DL6" s="17"/>
+      <c r="DM6" s="17"/>
+      <c r="DN6" s="17"/>
+      <c r="DO6" s="17"/>
+      <c r="DP6" s="17"/>
+      <c r="DQ6" s="17"/>
+      <c r="DR6" s="17"/>
+      <c r="DS6" s="17"/>
+      <c r="DT6" s="17"/>
+      <c r="DU6" s="17"/>
+      <c r="DV6" s="17"/>
+      <c r="DW6" s="17"/>
+      <c r="DX6" s="17"/>
+      <c r="DY6" s="17"/>
+      <c r="DZ6" s="17"/>
+      <c r="EA6" s="17"/>
+      <c r="EB6" s="17"/>
+      <c r="EC6" s="17"/>
+      <c r="ED6" s="17"/>
+      <c r="EE6" s="17"/>
+      <c r="EF6" s="17"/>
+      <c r="EG6" s="17"/>
+      <c r="EH6" s="17"/>
+      <c r="EI6" s="17"/>
+      <c r="EJ6" s="17"/>
+      <c r="EK6" s="17"/>
+      <c r="EL6" s="17"/>
+      <c r="EM6" s="17"/>
+      <c r="EN6" s="17"/>
+      <c r="EO6" s="17"/>
+      <c r="EP6" s="17"/>
+      <c r="EQ6" s="17"/>
+      <c r="ER6" s="17"/>
+      <c r="ES6" s="17"/>
+      <c r="ET6" s="17"/>
+      <c r="EU6" s="17"/>
+      <c r="EV6" s="17"/>
+      <c r="EW6" s="17"/>
+      <c r="EX6" s="17"/>
+      <c r="EY6" s="17"/>
+      <c r="EZ6" s="17"/>
+      <c r="FA6" s="17"/>
+      <c r="FB6" s="17"/>
+      <c r="FC6" s="17"/>
+      <c r="FD6" s="17"/>
+      <c r="FE6" s="17"/>
+      <c r="FF6" s="17"/>
+      <c r="FG6" s="17"/>
+      <c r="FH6" s="17"/>
+      <c r="FI6" s="17"/>
+      <c r="FJ6" s="17"/>
+      <c r="FK6" s="17"/>
+      <c r="FL6" s="17"/>
+      <c r="FM6" s="17"/>
+      <c r="FN6" s="17"/>
+      <c r="FO6" s="17"/>
+      <c r="FP6" s="17"/>
+      <c r="FQ6" s="17"/>
+      <c r="FR6" s="17"/>
+      <c r="FS6" s="17"/>
+      <c r="FT6" s="17"/>
+      <c r="FU6" s="17"/>
+      <c r="FV6" s="17"/>
+      <c r="FW6" s="17"/>
+      <c r="FX6" s="17"/>
+      <c r="FY6" s="17"/>
+      <c r="FZ6" s="17"/>
+      <c r="GA6" s="17"/>
+      <c r="GB6" s="17"/>
+      <c r="GC6" s="17"/>
+      <c r="GD6" s="17"/>
+      <c r="GE6" s="17"/>
+      <c r="GF6" s="17"/>
+      <c r="GG6" s="17"/>
+      <c r="GH6" s="17"/>
+      <c r="GI6" s="17"/>
+      <c r="GJ6" s="17"/>
+      <c r="GK6" s="17"/>
+      <c r="GL6" s="17"/>
+      <c r="GM6" s="17"/>
+      <c r="GN6" s="17"/>
+      <c r="GO6" s="17"/>
+      <c r="GP6" s="17"/>
+      <c r="GQ6" s="17"/>
+      <c r="GR6" s="17"/>
+      <c r="GS6" s="17"/>
+      <c r="GT6" s="17"/>
+      <c r="GU6" s="17"/>
+      <c r="GV6" s="17"/>
+      <c r="GW6" s="17"/>
+      <c r="GX6" s="17"/>
+      <c r="GY6" s="17"/>
+      <c r="GZ6" s="17"/>
+      <c r="HA6" s="17"/>
+      <c r="HB6" s="17"/>
+      <c r="HC6" s="17"/>
+      <c r="HD6" s="17"/>
+      <c r="HE6" s="17"/>
+      <c r="HF6" s="17"/>
+      <c r="HG6" s="17"/>
+      <c r="HH6" s="17"/>
+      <c r="HI6" s="17"/>
+      <c r="HJ6" s="17"/>
+      <c r="HK6" s="17"/>
+      <c r="HL6" s="17"/>
+      <c r="HM6" s="17"/>
+      <c r="HN6" s="17"/>
+      <c r="HO6" s="17"/>
+      <c r="HP6" s="17"/>
+      <c r="HQ6" s="17"/>
+      <c r="HR6" s="17"/>
+      <c r="HS6" s="17"/>
+      <c r="HT6" s="17"/>
+      <c r="HU6" s="17"/>
+      <c r="HV6" s="17"/>
+      <c r="HW6" s="17"/>
+      <c r="HX6" s="17"/>
+      <c r="HY6" s="17"/>
+      <c r="HZ6" s="17"/>
+      <c r="IA6" s="17"/>
+      <c r="IB6" s="17"/>
+      <c r="IC6" s="17"/>
+      <c r="ID6" s="17"/>
+      <c r="IE6" s="17"/>
+      <c r="IF6" s="17"/>
+      <c r="IG6" s="17"/>
+      <c r="IH6" s="17"/>
+      <c r="II6" s="17"/>
+      <c r="IJ6" s="17"/>
+      <c r="IK6" s="17"/>
+      <c r="IL6" s="17"/>
+      <c r="IM6" s="17"/>
+      <c r="IN6" s="17"/>
+      <c r="IO6" s="17"/>
+      <c r="IP6" s="17"/>
+      <c r="IQ6" s="17"/>
+      <c r="IR6" s="17"/>
+      <c r="IS6" s="18"/>
+      <c r="IT6" s="19"/>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{BA141AC4-40D4-40AF-A7FC-8B2B93C3E1C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{B6B10155-E097-4F97-B54D-F946A9243B59}">
       <formula1>"Sold Owner Occupied Unit,Sold Tenant Occupied Unit,Sold Vacant Unit,UnSold Vacant Unit,UnSold Tenant Occupied Unit"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{CC57311F-3A68-4A2E-87F2-C66F9CCC719E}">
-      <formula1>"Flat,Villa,Vaccant Plot"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{1B2E9E41-DB47-4BCC-867F-E5A8CA67F5C6}">
+      <formula1>"FLAT,VILLA,VACCANT PLOT"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
